--- a/GB-3Expense (Autosaved) (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved) (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" tabRatio="568" firstSheet="27" activeTab="33"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="568" firstSheet="27" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Jun-2018" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="985">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -3012,6 +3012,57 @@
   </si>
   <si>
     <t>4.9.2018</t>
+  </si>
+  <si>
+    <t>ေဘာ/Oil Seal</t>
+  </si>
+  <si>
+    <t>Fan Belt</t>
+  </si>
+  <si>
+    <t>CC-7530/AD VAN</t>
+  </si>
+  <si>
+    <t>Flat 3/4/ေက်ာက္ျပား</t>
+  </si>
+  <si>
+    <t>မိန္းလံုး/သဲကာ</t>
+  </si>
+  <si>
+    <t>FF-1166/Fielder</t>
+  </si>
+  <si>
+    <t>သံေခ်းခ်ြတ္ေဆး</t>
+  </si>
+  <si>
+    <t>MN 101 UPG ဂ်ပန္ခံေဆး</t>
+  </si>
+  <si>
+    <t>GB3/GB2</t>
+  </si>
+  <si>
+    <t>ထိုင္ခံုခ်ဳပ္   (65000/-5000က်န္)</t>
+  </si>
+  <si>
+    <t>အမိုးဖာ/သြပ္၀ယ္/လက္ခ</t>
+  </si>
+  <si>
+    <t>10နက္/502ေကာ္</t>
+  </si>
+  <si>
+    <t>တံခါးမွန္အသစ္(BYN)</t>
+  </si>
+  <si>
+    <t>Ko Zin Ko (Wiring)ျကိုရွင္း</t>
+  </si>
+  <si>
+    <t>Myo Zaw &amp; Win Zaw(Salary)</t>
+  </si>
+  <si>
+    <t>Myo Maung&amp;Zaw Zaw Naing</t>
+  </si>
+  <si>
+    <t>5.9.2018</t>
   </si>
 </sst>
 </file>
@@ -3420,7 +3471,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3677,6 +3728,12 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3986,7 +4043,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -5648,7 +5705,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -6162,7 +6219,7 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -7299,7 +7356,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -7900,7 +7957,7 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -8625,7 +8682,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -9708,7 +9765,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -10321,7 +10378,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -11082,7 +11139,7 @@
   <dimension ref="A1:F595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G539" sqref="G539"/>
     </sheetView>
   </sheetViews>
@@ -18063,7 +18120,7 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -18698,7 +18755,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -19356,7 +19413,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -20034,8 +20091,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20675,8 +20732,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C44:C45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21333,7 +21390,7 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -22648,7 +22705,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -23942,7 +23999,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -24683,16 +24740,16 @@
   <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="12" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="32" customWidth="1"/>
@@ -24701,7 +24758,7 @@
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>330</v>
       </c>
@@ -24730,7 +24787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36">
         <v>6</v>
       </c>
@@ -24753,7 +24810,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -24776,7 +24833,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -24801,7 +24858,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -24824,7 +24881,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>1</v>
       </c>
@@ -24847,7 +24904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>2</v>
       </c>
@@ -24872,7 +24929,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>2</v>
       </c>
@@ -24901,7 +24958,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>3</v>
       </c>
@@ -24926,7 +24983,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>1</v>
       </c>
@@ -24946,7 +25003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>2</v>
       </c>
@@ -24968,7 +25025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>5</v>
       </c>
@@ -24988,7 +25045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -25008,7 +25065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>5</v>
       </c>
@@ -25028,7 +25085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>3</v>
       </c>
@@ -25045,7 +25102,7 @@
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>1</v>
       </c>
@@ -25062,7 +25119,7 @@
       </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>1</v>
       </c>
@@ -25079,7 +25136,7 @@
       </c>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>1</v>
       </c>
@@ -25096,7 +25153,7 @@
       </c>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>7</v>
       </c>
@@ -25115,7 +25172,7 @@
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>4</v>
       </c>
@@ -25132,7 +25189,7 @@
       </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>2</v>
       </c>
@@ -25155,7 +25212,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>2</v>
       </c>
@@ -25178,7 +25235,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>2</v>
       </c>
@@ -25195,7 +25252,7 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>3</v>
       </c>
@@ -25212,7 +25269,7 @@
       </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>6</v>
       </c>
@@ -25229,7 +25286,7 @@
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="17"/>
@@ -25243,7 +25300,7 @@
       </c>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" s="39" t="s">
         <v>372</v>
       </c>
@@ -25251,7 +25308,7 @@
         <v>72950</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.8">
       <c r="E28" s="39" t="s">
         <v>373</v>
       </c>
@@ -25259,14 +25316,14 @@
         <v>339000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="39"/>
       <c r="F29" s="34">
         <f>SUM(F26:F28)</f>
         <v>679450</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.8">
       <c r="E30" s="39" t="s">
         <v>374</v>
       </c>
@@ -25274,1538 +25331,1538 @@
         <v>395500</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="35">
         <f>F30-F29</f>
         <v>-283950</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="93">
         <f>F3+F4+F7+F8+F11+F21+F22+F23</f>
         <v>69500</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F68" s="12"/>
     </row>
-    <row r="69" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F69" s="12"/>
     </row>
-    <row r="70" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F75" s="12"/>
     </row>
-    <row r="76" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F76" s="12"/>
     </row>
-    <row r="77" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F77" s="12"/>
     </row>
-    <row r="78" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F78" s="12"/>
     </row>
-    <row r="79" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F79" s="12"/>
     </row>
-    <row r="80" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F80" s="12"/>
     </row>
-    <row r="81" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F82" s="12"/>
     </row>
-    <row r="83" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F85" s="12"/>
     </row>
-    <row r="86" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F87" s="12"/>
     </row>
-    <row r="88" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F90" s="12"/>
     </row>
-    <row r="91" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F91" s="12"/>
     </row>
-    <row r="92" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F94" s="12"/>
     </row>
-    <row r="95" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F95" s="12"/>
     </row>
-    <row r="96" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F96" s="12"/>
     </row>
-    <row r="97" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F97" s="12"/>
     </row>
-    <row r="98" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F98" s="12"/>
     </row>
-    <row r="99" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F100" s="12"/>
     </row>
-    <row r="101" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F101" s="12"/>
     </row>
-    <row r="102" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F102" s="12"/>
     </row>
-    <row r="103" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F104" s="12"/>
     </row>
-    <row r="105" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F105" s="12"/>
     </row>
-    <row r="106" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F108" s="12"/>
     </row>
-    <row r="109" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F109" s="12"/>
     </row>
-    <row r="110" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F110" s="12"/>
     </row>
-    <row r="111" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F111" s="12"/>
     </row>
-    <row r="112" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F112" s="12"/>
     </row>
-    <row r="113" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F113" s="12"/>
     </row>
-    <row r="114" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F114" s="12"/>
     </row>
-    <row r="115" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F119" s="12"/>
     </row>
-    <row r="120" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F120" s="12"/>
     </row>
-    <row r="121" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F121" s="12"/>
     </row>
-    <row r="122" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F123" s="12"/>
     </row>
-    <row r="124" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F124" s="12"/>
     </row>
-    <row r="125" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F126" s="12"/>
     </row>
-    <row r="127" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F128" s="12"/>
     </row>
-    <row r="129" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F129" s="12"/>
     </row>
-    <row r="130" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F130" s="12"/>
     </row>
-    <row r="131" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F131" s="12"/>
     </row>
-    <row r="132" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F132" s="12"/>
     </row>
-    <row r="133" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F133" s="12"/>
     </row>
-    <row r="134" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F134" s="12"/>
     </row>
-    <row r="135" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F135" s="12"/>
     </row>
-    <row r="136" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F136" s="12"/>
     </row>
-    <row r="137" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F137" s="12"/>
     </row>
-    <row r="138" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F139" s="12"/>
     </row>
-    <row r="140" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F144" s="12"/>
     </row>
-    <row r="145" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F151" s="12"/>
     </row>
-    <row r="152" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F152" s="12"/>
     </row>
-    <row r="153" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F153" s="12"/>
     </row>
-    <row r="154" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F154" s="12"/>
     </row>
-    <row r="155" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F155" s="12"/>
     </row>
-    <row r="156" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F156" s="12"/>
     </row>
-    <row r="157" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F157" s="12"/>
     </row>
-    <row r="158" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F158" s="12"/>
     </row>
-    <row r="159" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F159" s="12"/>
     </row>
-    <row r="160" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F160" s="12"/>
     </row>
-    <row r="161" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F164" s="12"/>
     </row>
-    <row r="165" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F165" s="12"/>
     </row>
-    <row r="166" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F166" s="12"/>
     </row>
-    <row r="167" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F168" s="12"/>
     </row>
-    <row r="169" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F169" s="12"/>
     </row>
-    <row r="170" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F170" s="12"/>
     </row>
-    <row r="171" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F171" s="12"/>
     </row>
-    <row r="172" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F172" s="12"/>
     </row>
-    <row r="173" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F173" s="12"/>
     </row>
-    <row r="174" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F174" s="12"/>
     </row>
-    <row r="175" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F175" s="12"/>
     </row>
-    <row r="176" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F176" s="12"/>
     </row>
-    <row r="177" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F177" s="12"/>
     </row>
-    <row r="178" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F178" s="12"/>
     </row>
-    <row r="179" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F179" s="12"/>
     </row>
-    <row r="180" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F180" s="12"/>
     </row>
-    <row r="181" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F181" s="12"/>
     </row>
-    <row r="182" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F182" s="12"/>
     </row>
-    <row r="183" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F183" s="12"/>
     </row>
-    <row r="184" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F184" s="12"/>
     </row>
-    <row r="185" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F186" s="12"/>
     </row>
-    <row r="187" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F187" s="12"/>
     </row>
-    <row r="188" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F188" s="12"/>
     </row>
-    <row r="189" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F189" s="12"/>
     </row>
-    <row r="190" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F190" s="12"/>
     </row>
-    <row r="191" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F191" s="12"/>
     </row>
-    <row r="192" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F192" s="12"/>
     </row>
-    <row r="193" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F193" s="12"/>
     </row>
-    <row r="194" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F194" s="12"/>
     </row>
-    <row r="195" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F195" s="12"/>
     </row>
-    <row r="196" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F197" s="12"/>
     </row>
-    <row r="198" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F198" s="12"/>
     </row>
-    <row r="199" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F199" s="12"/>
     </row>
-    <row r="200" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F200" s="12"/>
     </row>
-    <row r="201" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F201" s="12"/>
     </row>
-    <row r="202" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F202" s="12"/>
     </row>
-    <row r="203" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F203" s="12"/>
     </row>
-    <row r="204" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F205" s="12"/>
     </row>
-    <row r="206" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F207" s="12"/>
     </row>
-    <row r="208" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F208" s="12"/>
     </row>
-    <row r="209" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F209" s="12"/>
     </row>
-    <row r="210" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F210" s="12"/>
     </row>
-    <row r="211" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F211" s="12"/>
     </row>
-    <row r="212" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F212" s="12"/>
     </row>
-    <row r="213" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F213" s="12"/>
     </row>
-    <row r="214" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F215" s="12"/>
     </row>
-    <row r="216" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F216" s="12"/>
     </row>
-    <row r="217" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F217" s="12"/>
     </row>
-    <row r="218" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F218" s="12"/>
     </row>
-    <row r="219" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F219" s="12"/>
     </row>
-    <row r="220" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F220" s="12"/>
     </row>
-    <row r="221" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F221" s="12"/>
     </row>
-    <row r="222" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F222" s="12"/>
     </row>
-    <row r="223" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F223" s="12"/>
     </row>
-    <row r="224" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F224" s="12"/>
     </row>
-    <row r="225" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F225" s="12"/>
     </row>
-    <row r="226" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F226" s="12"/>
     </row>
-    <row r="227" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F227" s="12"/>
     </row>
-    <row r="228" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F228" s="12"/>
     </row>
-    <row r="229" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F229" s="12"/>
     </row>
-    <row r="230" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F230" s="12"/>
     </row>
-    <row r="231" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F231" s="12"/>
     </row>
-    <row r="232" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F232" s="12"/>
     </row>
-    <row r="233" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F233" s="12"/>
     </row>
-    <row r="234" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F234" s="12"/>
     </row>
-    <row r="235" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F235" s="12"/>
     </row>
-    <row r="236" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F236" s="12"/>
     </row>
-    <row r="237" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F237" s="12"/>
     </row>
-    <row r="238" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F238" s="12"/>
     </row>
-    <row r="239" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F239" s="12"/>
     </row>
-    <row r="240" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F240" s="12"/>
     </row>
-    <row r="241" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F241" s="12"/>
     </row>
-    <row r="242" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F242" s="12"/>
     </row>
-    <row r="243" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F243" s="12"/>
     </row>
-    <row r="244" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F244" s="12"/>
     </row>
-    <row r="245" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F245" s="12"/>
     </row>
-    <row r="246" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F246" s="12"/>
     </row>
-    <row r="247" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F247" s="12"/>
     </row>
-    <row r="248" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F248" s="12"/>
     </row>
-    <row r="249" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F249" s="12"/>
     </row>
-    <row r="250" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F250" s="12"/>
     </row>
-    <row r="251" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F251" s="12"/>
     </row>
-    <row r="252" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F252" s="12"/>
     </row>
-    <row r="253" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F253" s="12"/>
     </row>
-    <row r="254" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F254" s="12"/>
     </row>
-    <row r="255" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F255" s="12"/>
     </row>
-    <row r="256" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F256" s="12"/>
     </row>
-    <row r="257" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F257" s="12"/>
     </row>
-    <row r="258" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F258" s="12"/>
     </row>
-    <row r="259" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F259" s="12"/>
     </row>
-    <row r="260" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F260" s="12"/>
     </row>
-    <row r="261" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F261" s="12"/>
     </row>
-    <row r="262" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F262" s="12"/>
     </row>
-    <row r="263" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F263" s="12"/>
     </row>
-    <row r="264" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F264" s="12"/>
     </row>
-    <row r="265" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F265" s="12"/>
     </row>
-    <row r="266" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F266" s="12"/>
     </row>
-    <row r="267" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F267" s="12"/>
     </row>
-    <row r="268" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F268" s="12"/>
     </row>
-    <row r="269" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F269" s="12"/>
     </row>
-    <row r="270" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F270" s="12"/>
     </row>
-    <row r="271" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F271" s="12"/>
     </row>
-    <row r="272" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F272" s="12"/>
     </row>
-    <row r="273" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F273" s="12"/>
     </row>
-    <row r="274" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F274" s="12"/>
     </row>
-    <row r="275" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F275" s="12"/>
     </row>
-    <row r="276" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F276" s="12"/>
     </row>
-    <row r="277" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F277" s="12"/>
     </row>
-    <row r="278" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F278" s="12"/>
     </row>
-    <row r="279" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F279" s="12"/>
     </row>
-    <row r="280" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F280" s="12"/>
     </row>
-    <row r="281" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F281" s="12"/>
     </row>
-    <row r="282" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F284" s="12"/>
     </row>
-    <row r="285" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F285" s="12"/>
     </row>
-    <row r="286" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F286" s="12"/>
     </row>
-    <row r="287" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F287" s="12"/>
     </row>
-    <row r="288" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F288" s="12"/>
     </row>
-    <row r="289" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F289" s="12"/>
     </row>
-    <row r="290" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F290" s="12"/>
     </row>
-    <row r="291" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F291" s="12"/>
     </row>
-    <row r="292" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F292" s="12"/>
     </row>
-    <row r="293" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F293" s="12"/>
     </row>
-    <row r="294" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F294" s="12"/>
     </row>
-    <row r="295" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F295" s="12"/>
     </row>
-    <row r="296" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F296" s="12"/>
     </row>
-    <row r="297" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F297" s="12"/>
     </row>
-    <row r="298" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F298" s="12"/>
     </row>
-    <row r="299" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C299" s="17"/>
       <c r="F299" s="12"/>
     </row>
-    <row r="300" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F300" s="12"/>
     </row>
-    <row r="301" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F301" s="12"/>
     </row>
-    <row r="302" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F302" s="12"/>
     </row>
-    <row r="303" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F303" s="12"/>
     </row>
-    <row r="304" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F304" s="12"/>
     </row>
-    <row r="305" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F305" s="12"/>
     </row>
-    <row r="306" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F306" s="12"/>
     </row>
-    <row r="307" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F307" s="12"/>
     </row>
-    <row r="308" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F308" s="12"/>
     </row>
-    <row r="309" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F309" s="12"/>
     </row>
-    <row r="310" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F310" s="12"/>
     </row>
-    <row r="311" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F311" s="12"/>
     </row>
-    <row r="312" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F312" s="12"/>
     </row>
-    <row r="313" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F313" s="12"/>
     </row>
-    <row r="314" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F314" s="12"/>
     </row>
-    <row r="315" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F315" s="12"/>
     </row>
-    <row r="316" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F316" s="12"/>
     </row>
-    <row r="317" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F317" s="12"/>
     </row>
-    <row r="318" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F318" s="12"/>
     </row>
-    <row r="319" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F319" s="12"/>
     </row>
-    <row r="320" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F320" s="12"/>
     </row>
-    <row r="321" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F321" s="12"/>
     </row>
-    <row r="322" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F322" s="12"/>
     </row>
-    <row r="323" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F323" s="12"/>
     </row>
-    <row r="324" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F324" s="12"/>
     </row>
-    <row r="325" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F325" s="12"/>
     </row>
-    <row r="326" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F326" s="12"/>
     </row>
-    <row r="327" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F327" s="12"/>
     </row>
-    <row r="328" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F328" s="12"/>
     </row>
-    <row r="329" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F329" s="12"/>
     </row>
-    <row r="330" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F330" s="12"/>
     </row>
-    <row r="331" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F331" s="12"/>
     </row>
-    <row r="332" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F332" s="12"/>
     </row>
-    <row r="333" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F333" s="12"/>
     </row>
-    <row r="334" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F334" s="12"/>
     </row>
-    <row r="335" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F335" s="12"/>
     </row>
-    <row r="336" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F336" s="12"/>
     </row>
-    <row r="337" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F337" s="12"/>
     </row>
-    <row r="338" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F338" s="12"/>
     </row>
-    <row r="339" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F339" s="12"/>
     </row>
-    <row r="340" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F340" s="12"/>
     </row>
-    <row r="341" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F341" s="12"/>
     </row>
-    <row r="342" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F342" s="12"/>
     </row>
-    <row r="343" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F343" s="12"/>
     </row>
-    <row r="344" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F344" s="12"/>
     </row>
-    <row r="345" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F345" s="12"/>
     </row>
-    <row r="346" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F346" s="12"/>
     </row>
-    <row r="347" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F347" s="12"/>
     </row>
-    <row r="348" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F348" s="12"/>
     </row>
-    <row r="349" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F349" s="12"/>
     </row>
-    <row r="350" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F350" s="12"/>
     </row>
-    <row r="351" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F351" s="12"/>
     </row>
-    <row r="352" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F352" s="12"/>
     </row>
-    <row r="353" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F353" s="12"/>
     </row>
-    <row r="354" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F354" s="12"/>
     </row>
-    <row r="355" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F355" s="12"/>
     </row>
-    <row r="356" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F356" s="12"/>
     </row>
-    <row r="357" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F357" s="12"/>
     </row>
-    <row r="358" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F358" s="12"/>
     </row>
-    <row r="359" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F359" s="12"/>
     </row>
-    <row r="360" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F360" s="12"/>
     </row>
-    <row r="361" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F361" s="12"/>
     </row>
-    <row r="362" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F362" s="12"/>
     </row>
-    <row r="363" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F363" s="12"/>
     </row>
-    <row r="364" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F364" s="12"/>
     </row>
-    <row r="365" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F365" s="12"/>
     </row>
-    <row r="366" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F366" s="12"/>
     </row>
-    <row r="367" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F367" s="12"/>
     </row>
-    <row r="368" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F368" s="12"/>
     </row>
-    <row r="369" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F369" s="12"/>
     </row>
-    <row r="370" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F370" s="12"/>
     </row>
-    <row r="371" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F371" s="12"/>
     </row>
-    <row r="372" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F372" s="12"/>
     </row>
-    <row r="373" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F373" s="12"/>
     </row>
-    <row r="374" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F374" s="12"/>
     </row>
-    <row r="375" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F375" s="12"/>
     </row>
-    <row r="376" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F376" s="12"/>
     </row>
-    <row r="377" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F377" s="12"/>
     </row>
-    <row r="378" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F378" s="12"/>
     </row>
-    <row r="379" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F379" s="12"/>
     </row>
-    <row r="380" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F380" s="12"/>
     </row>
-    <row r="381" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F381" s="12"/>
     </row>
-    <row r="382" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F382" s="12"/>
     </row>
-    <row r="383" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F383" s="12"/>
     </row>
-    <row r="384" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F384" s="12"/>
     </row>
-    <row r="385" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F385" s="12"/>
     </row>
-    <row r="386" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F386" s="12"/>
     </row>
-    <row r="387" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F387" s="12"/>
     </row>
-    <row r="388" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F388" s="12"/>
     </row>
-    <row r="389" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F389" s="12"/>
     </row>
-    <row r="390" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F390" s="12"/>
     </row>
-    <row r="391" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F391" s="12"/>
     </row>
-    <row r="392" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F392" s="12"/>
     </row>
-    <row r="393" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F393" s="12"/>
     </row>
-    <row r="394" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F394" s="12"/>
     </row>
-    <row r="395" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F395" s="12"/>
     </row>
-    <row r="396" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F396" s="12"/>
     </row>
-    <row r="397" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F397" s="12"/>
     </row>
-    <row r="398" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F398" s="12"/>
     </row>
-    <row r="399" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F399" s="12"/>
     </row>
-    <row r="400" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F400" s="12"/>
     </row>
-    <row r="401" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F401" s="12"/>
     </row>
-    <row r="402" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F402" s="12"/>
     </row>
-    <row r="403" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F403" s="12"/>
     </row>
-    <row r="404" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F404" s="12"/>
     </row>
-    <row r="405" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F405" s="12"/>
     </row>
-    <row r="406" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F406" s="12"/>
     </row>
-    <row r="407" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F407" s="12"/>
     </row>
-    <row r="408" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F408" s="12"/>
     </row>
-    <row r="409" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F409" s="12"/>
     </row>
-    <row r="410" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F410" s="12"/>
     </row>
-    <row r="411" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F411" s="12"/>
     </row>
-    <row r="412" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F412" s="12"/>
     </row>
-    <row r="413" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F413" s="12"/>
     </row>
-    <row r="414" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F414" s="12"/>
     </row>
-    <row r="415" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F415" s="12"/>
     </row>
-    <row r="416" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F416" s="12"/>
     </row>
-    <row r="417" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F417" s="12"/>
     </row>
-    <row r="418" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F418" s="12"/>
     </row>
-    <row r="419" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F419" s="12"/>
     </row>
-    <row r="420" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F420" s="12"/>
     </row>
-    <row r="421" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F421" s="12"/>
     </row>
-    <row r="422" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F422" s="12"/>
     </row>
-    <row r="423" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F423" s="12"/>
     </row>
-    <row r="424" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F424" s="12"/>
     </row>
-    <row r="425" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F425" s="12"/>
     </row>
-    <row r="426" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F426" s="12"/>
     </row>
-    <row r="427" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F427" s="12"/>
     </row>
-    <row r="428" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F428" s="12"/>
     </row>
-    <row r="429" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F429" s="12"/>
     </row>
-    <row r="430" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F430" s="12"/>
     </row>
-    <row r="431" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F431" s="12"/>
     </row>
-    <row r="432" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F432" s="12"/>
     </row>
-    <row r="433" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F433" s="12"/>
     </row>
-    <row r="434" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F434" s="12"/>
     </row>
-    <row r="435" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F435" s="12"/>
     </row>
-    <row r="436" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F436" s="12"/>
     </row>
-    <row r="437" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F437" s="12"/>
     </row>
-    <row r="438" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F438" s="12"/>
     </row>
-    <row r="439" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F439" s="12"/>
     </row>
-    <row r="440" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F440" s="12"/>
     </row>
-    <row r="441" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F441" s="12"/>
     </row>
-    <row r="442" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F442" s="12"/>
     </row>
-    <row r="443" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F443" s="12"/>
     </row>
-    <row r="444" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F444" s="12"/>
     </row>
-    <row r="445" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F445" s="12"/>
     </row>
-    <row r="446" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F446" s="12"/>
     </row>
-    <row r="447" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F447" s="12"/>
     </row>
-    <row r="448" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F448" s="12"/>
     </row>
-    <row r="449" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F449" s="12"/>
     </row>
-    <row r="450" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F450" s="12"/>
     </row>
-    <row r="451" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F451" s="12"/>
     </row>
-    <row r="452" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F452" s="12"/>
     </row>
-    <row r="453" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F453" s="12"/>
     </row>
-    <row r="454" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F454" s="12"/>
     </row>
-    <row r="455" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F455" s="12"/>
     </row>
-    <row r="456" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F456" s="12"/>
     </row>
-    <row r="457" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F457" s="12"/>
     </row>
-    <row r="458" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F458" s="12"/>
     </row>
-    <row r="459" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F459" s="12"/>
     </row>
-    <row r="460" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F460" s="12"/>
     </row>
-    <row r="461" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F461" s="12"/>
     </row>
-    <row r="462" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F462" s="12"/>
     </row>
-    <row r="463" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F463" s="12"/>
     </row>
-    <row r="464" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F464" s="12"/>
     </row>
-    <row r="465" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F465" s="12"/>
     </row>
-    <row r="466" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F466" s="12"/>
     </row>
-    <row r="467" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F467" s="12"/>
     </row>
-    <row r="468" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F468" s="12"/>
     </row>
-    <row r="469" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F469" s="12"/>
     </row>
-    <row r="470" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F470" s="12"/>
     </row>
-    <row r="471" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F471" s="12"/>
     </row>
-    <row r="472" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F472" s="12"/>
     </row>
-    <row r="473" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F473" s="12"/>
     </row>
-    <row r="474" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F474" s="12"/>
     </row>
-    <row r="475" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F475" s="12"/>
     </row>
-    <row r="476" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F476" s="12"/>
     </row>
-    <row r="477" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F477" s="12"/>
     </row>
-    <row r="478" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F478" s="12"/>
     </row>
-    <row r="479" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F479" s="12"/>
     </row>
-    <row r="480" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F480" s="12"/>
     </row>
-    <row r="481" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F481" s="12"/>
     </row>
-    <row r="482" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F482" s="12"/>
     </row>
-    <row r="483" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F483" s="12"/>
     </row>
-    <row r="484" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F484" s="12"/>
     </row>
-    <row r="485" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F485" s="12"/>
     </row>
-    <row r="486" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F486" s="12"/>
     </row>
-    <row r="487" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F487" s="12"/>
     </row>
-    <row r="488" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F488" s="12"/>
     </row>
-    <row r="489" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F489" s="12"/>
     </row>
-    <row r="490" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F490" s="12"/>
     </row>
-    <row r="491" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F491" s="12"/>
     </row>
-    <row r="492" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F492" s="12"/>
     </row>
-    <row r="493" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F493" s="12"/>
     </row>
-    <row r="494" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F494" s="12"/>
     </row>
-    <row r="495" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F495" s="12"/>
     </row>
-    <row r="496" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F496" s="12"/>
     </row>
-    <row r="497" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F497" s="12"/>
     </row>
-    <row r="498" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F498" s="12"/>
     </row>
-    <row r="499" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F499" s="12"/>
     </row>
-    <row r="500" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F500" s="12"/>
     </row>
-    <row r="501" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F501" s="12"/>
     </row>
-    <row r="502" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F502" s="12"/>
     </row>
-    <row r="503" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F503" s="12"/>
     </row>
-    <row r="504" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F504" s="12"/>
     </row>
-    <row r="505" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F505" s="12"/>
     </row>
-    <row r="506" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F506" s="12"/>
     </row>
-    <row r="507" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F507" s="12"/>
     </row>
-    <row r="508" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F508" s="12"/>
     </row>
-    <row r="509" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F509" s="12"/>
     </row>
-    <row r="510" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F510" s="12"/>
     </row>
-    <row r="511" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F511" s="12"/>
     </row>
-    <row r="512" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F512" s="12"/>
     </row>
-    <row r="513" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F513" s="12"/>
     </row>
-    <row r="514" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F514" s="12"/>
     </row>
-    <row r="515" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F515" s="12"/>
     </row>
-    <row r="516" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F516" s="12"/>
     </row>
-    <row r="517" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F517" s="12"/>
     </row>
-    <row r="518" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F518" s="12"/>
     </row>
-    <row r="519" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F519" s="12"/>
     </row>
-    <row r="520" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F520" s="12"/>
     </row>
-    <row r="521" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F521" s="12"/>
     </row>
-    <row r="522" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F522" s="12"/>
     </row>
-    <row r="523" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F523" s="12"/>
     </row>
-    <row r="524" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F524" s="12"/>
     </row>
-    <row r="525" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F525" s="12"/>
     </row>
-    <row r="526" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F526" s="12"/>
     </row>
-    <row r="527" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F527" s="12"/>
     </row>
-    <row r="528" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F528" s="12"/>
     </row>
-    <row r="529" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F529" s="12"/>
     </row>
-    <row r="530" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F530" s="12"/>
     </row>
-    <row r="531" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F531" s="12"/>
     </row>
-    <row r="532" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F532" s="12"/>
     </row>
-    <row r="533" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F533" s="12"/>
     </row>
-    <row r="534" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F534" s="12"/>
     </row>
-    <row r="535" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F535" s="12"/>
     </row>
-    <row r="536" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F536" s="12"/>
     </row>
-    <row r="537" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F537" s="12"/>
     </row>
-    <row r="538" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F538" s="12"/>
     </row>
-    <row r="539" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="6:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F539" s="12"/>
     </row>
   </sheetData>
@@ -26822,7 +26879,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -27533,7 +27590,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -28265,7 +28322,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -28968,7 +29025,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -29711,11 +29768,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M377"/>
+  <dimension ref="A1:M378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -31680,172 +31737,322 @@
       <c r="A100" s="112" t="s">
         <v>967</v>
       </c>
-      <c r="B100" s="113"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
+      <c r="B100" s="113">
+        <v>2</v>
+      </c>
+      <c r="C100" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="D100" s="112" t="s">
+        <v>968</v>
+      </c>
+      <c r="E100" s="126" t="s">
+        <v>956</v>
+      </c>
       <c r="F100" s="112"/>
-      <c r="G100" s="114"/>
+      <c r="G100" s="114">
+        <v>15500</v>
+      </c>
       <c r="H100" s="112"/>
     </row>
     <row r="101" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="98"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="98"/>
-      <c r="E101" s="98"/>
+      <c r="B101" s="20">
+        <v>2</v>
+      </c>
+      <c r="C101" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="98" t="s">
+        <v>969</v>
+      </c>
+      <c r="E101" s="98" t="s">
+        <v>970</v>
+      </c>
       <c r="F101" s="98"/>
-      <c r="G101" s="40"/>
+      <c r="G101" s="40">
+        <v>5000</v>
+      </c>
       <c r="H101" s="98"/>
     </row>
     <row r="102" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="98"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="98"/>
+      <c r="B102" s="20">
+        <v>3</v>
+      </c>
+      <c r="C102" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D102" s="98" t="s">
+        <v>971</v>
+      </c>
       <c r="E102" s="98"/>
       <c r="F102" s="98"/>
-      <c r="G102" s="40"/>
+      <c r="G102" s="40">
+        <v>3050</v>
+      </c>
       <c r="H102" s="98"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="98"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
+      <c r="B103" s="20">
+        <v>2</v>
+      </c>
+      <c r="C103" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D103" s="98" t="s">
+        <v>972</v>
+      </c>
+      <c r="E103" s="98" t="s">
+        <v>973</v>
+      </c>
       <c r="F103" s="98"/>
-      <c r="G103" s="40"/>
+      <c r="G103" s="40">
+        <v>25000</v>
+      </c>
       <c r="H103" s="98"/>
     </row>
     <row r="104" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="98"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="98"/>
+      <c r="B104" s="20">
+        <v>2</v>
+      </c>
+      <c r="C104" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D104" s="98" t="s">
+        <v>974</v>
+      </c>
+      <c r="E104" s="98" t="s">
+        <v>203</v>
+      </c>
       <c r="F104" s="98"/>
-      <c r="G104" s="40"/>
+      <c r="G104" s="40">
+        <v>3500</v>
+      </c>
       <c r="H104" s="98"/>
     </row>
     <row r="105" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="98"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="98"/>
+      <c r="B105" s="20">
+        <v>3</v>
+      </c>
+      <c r="C105" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="98" t="s">
+        <v>975</v>
+      </c>
       <c r="E105" s="98"/>
       <c r="F105" s="98"/>
-      <c r="G105" s="40"/>
+      <c r="G105" s="40">
+        <v>18500</v>
+      </c>
       <c r="H105" s="98"/>
     </row>
     <row r="106" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="98"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="98"/>
+      <c r="B106" s="20">
+        <v>5</v>
+      </c>
+      <c r="C106" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="98" t="s">
+        <v>976</v>
+      </c>
       <c r="E106" s="98"/>
       <c r="F106" s="98"/>
-      <c r="G106" s="40"/>
+      <c r="G106" s="40">
+        <v>12000</v>
+      </c>
       <c r="H106" s="98"/>
     </row>
     <row r="107" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="98"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="98"/>
+      <c r="B107" s="20">
+        <v>3</v>
+      </c>
+      <c r="C107" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" s="98" t="s">
+        <v>979</v>
+      </c>
       <c r="E107" s="98"/>
       <c r="F107" s="98"/>
-      <c r="G107" s="40"/>
+      <c r="G107" s="40">
+        <v>1500</v>
+      </c>
       <c r="H107" s="98"/>
     </row>
     <row r="108" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="98"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="98"/>
-      <c r="D108" s="98"/>
+      <c r="B108" s="20">
+        <v>5</v>
+      </c>
+      <c r="C108" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="98" t="s">
+        <v>358</v>
+      </c>
       <c r="E108" s="98"/>
       <c r="F108" s="98"/>
-      <c r="G108" s="40"/>
+      <c r="G108" s="40">
+        <v>11000</v>
+      </c>
       <c r="H108" s="98"/>
     </row>
     <row r="109" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="98"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="98"/>
-      <c r="D109" s="98"/>
-      <c r="E109" s="98"/>
+      <c r="B109" s="20">
+        <v>2</v>
+      </c>
+      <c r="C109" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D109" s="98" t="s">
+        <v>977</v>
+      </c>
+      <c r="E109" s="98" t="s">
+        <v>757</v>
+      </c>
       <c r="F109" s="98"/>
-      <c r="G109" s="40"/>
+      <c r="G109" s="40">
+        <v>5000</v>
+      </c>
       <c r="H109" s="98"/>
     </row>
     <row r="110" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="98"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="98"/>
-      <c r="D110" s="98"/>
+      <c r="B110" s="20">
+        <v>1</v>
+      </c>
+      <c r="C110" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="98" t="s">
+        <v>978</v>
+      </c>
       <c r="E110" s="98"/>
       <c r="F110" s="98"/>
-      <c r="G110" s="40"/>
+      <c r="G110" s="40">
+        <v>29000</v>
+      </c>
       <c r="H110" s="98"/>
     </row>
     <row r="111" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="98"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="98"/>
-      <c r="D111" s="98"/>
+      <c r="B111" s="20">
+        <v>8</v>
+      </c>
+      <c r="C111" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D111" s="98" t="s">
+        <v>982</v>
+      </c>
       <c r="E111" s="98"/>
       <c r="F111" s="98"/>
-      <c r="G111" s="40"/>
+      <c r="G111" s="40">
+        <v>58000</v>
+      </c>
       <c r="H111" s="98"/>
     </row>
     <row r="112" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="98"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
+      <c r="B112" s="20">
+        <v>2</v>
+      </c>
+      <c r="C112" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="98" t="s">
+        <v>980</v>
+      </c>
+      <c r="E112" s="98" t="s">
+        <v>384</v>
+      </c>
       <c r="F112" s="98"/>
-      <c r="G112" s="40"/>
+      <c r="G112" s="40">
+        <v>90000</v>
+      </c>
       <c r="H112" s="98"/>
     </row>
     <row r="113" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="98"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="98"/>
+      <c r="B113" s="20">
+        <v>4</v>
+      </c>
+      <c r="C113" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="98" t="s">
+        <v>983</v>
+      </c>
       <c r="E113" s="98"/>
       <c r="F113" s="98"/>
-      <c r="G113" s="40"/>
+      <c r="G113" s="40">
+        <v>23000</v>
+      </c>
       <c r="H113" s="98"/>
     </row>
     <row r="114" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="98"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="98"/>
-      <c r="D114" s="98"/>
-      <c r="E114" s="98"/>
+      <c r="B114" s="20">
+        <v>8</v>
+      </c>
+      <c r="C114" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D114" s="98" t="s">
+        <v>981</v>
+      </c>
+      <c r="E114" s="98" t="s">
+        <v>757</v>
+      </c>
       <c r="F114" s="98"/>
-      <c r="G114" s="40"/>
+      <c r="G114" s="40">
+        <v>5000</v>
+      </c>
       <c r="H114" s="98"/>
     </row>
     <row r="115" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="98"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
+      <c r="B115" s="20">
+        <v>1</v>
+      </c>
+      <c r="C115" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D115" s="98" t="s">
+        <v>2</v>
+      </c>
       <c r="E115" s="98"/>
       <c r="F115" s="98"/>
-      <c r="G115" s="40"/>
+      <c r="G115" s="40">
+        <v>2000</v>
+      </c>
       <c r="H115" s="98"/>
     </row>
-    <row r="116" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A116" s="98"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="98"/>
-      <c r="D116" s="98"/>
+      <c r="B116" s="20">
+        <v>6</v>
+      </c>
+      <c r="C116" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D116" s="98" t="s">
+        <v>387</v>
+      </c>
       <c r="E116" s="98"/>
       <c r="F116" s="98"/>
-      <c r="G116" s="40"/>
+      <c r="G116" s="109">
+        <v>27000</v>
+      </c>
       <c r="H116" s="98"/>
     </row>
     <row r="117" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -31854,8 +32061,13 @@
       <c r="C117" s="98"/>
       <c r="D117" s="98"/>
       <c r="E117" s="98"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="40"/>
+      <c r="F117" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="G117" s="97">
+        <f>SUM(G100:G116)</f>
+        <v>334050</v>
+      </c>
       <c r="H117" s="98"/>
     </row>
     <row r="118" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -31864,18 +32076,26 @@
       <c r="C118" s="98"/>
       <c r="D118" s="98"/>
       <c r="E118" s="98"/>
-      <c r="F118" s="98"/>
-      <c r="G118" s="40"/>
+      <c r="F118" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G118" s="97">
+        <v>83000</v>
+      </c>
       <c r="H118" s="98"/>
     </row>
-    <row r="119" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A119" s="98"/>
       <c r="B119" s="20"/>
       <c r="C119" s="98"/>
       <c r="D119" s="98"/>
       <c r="E119" s="98"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="40"/>
+      <c r="F119" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="G119" s="107">
+        <v>74000</v>
+      </c>
       <c r="H119" s="98"/>
     </row>
     <row r="120" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -31885,38 +32105,50 @@
       <c r="D120" s="98"/>
       <c r="E120" s="98"/>
       <c r="F120" s="98"/>
-      <c r="G120" s="40"/>
+      <c r="G120" s="128">
+        <f>SUM(G117:G119)</f>
+        <v>491050</v>
+      </c>
       <c r="H120" s="98"/>
     </row>
-    <row r="121" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A121" s="98"/>
       <c r="B121" s="20"/>
       <c r="C121" s="98"/>
       <c r="D121" s="98"/>
       <c r="E121" s="98"/>
-      <c r="F121" s="98"/>
-      <c r="G121" s="40"/>
+      <c r="F121" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="G121" s="127">
+        <v>421500</v>
+      </c>
       <c r="H121" s="98"/>
     </row>
-    <row r="122" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="98"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="98"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="98"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="98"/>
+    <row r="122" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A122" s="115"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
+      <c r="F122" s="115"/>
+      <c r="G122" s="129">
+        <f>G121-G120</f>
+        <v>-69550</v>
+      </c>
+      <c r="H122" s="115"/>
     </row>
     <row r="123" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="98"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="98"/>
-      <c r="D123" s="98"/>
-      <c r="E123" s="98"/>
-      <c r="F123" s="98"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="98"/>
+      <c r="A123" s="112" t="s">
+        <v>984</v>
+      </c>
+      <c r="B123" s="113"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="112"/>
+      <c r="E123" s="112"/>
+      <c r="F123" s="112"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="112"/>
     </row>
     <row r="124" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="98"/>
@@ -34457,6 +34689,16 @@
       <c r="F377" s="98"/>
       <c r="G377" s="40"/>
       <c r="H377" s="98"/>
+    </row>
+    <row r="378" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" s="98"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="98"/>
+      <c r="D378" s="98"/>
+      <c r="E378" s="98"/>
+      <c r="F378" s="98"/>
+      <c r="G378" s="40"/>
+      <c r="H378" s="98"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H72"/>
@@ -34487,7 +34729,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -35126,8 +35368,8 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35585,7 +35827,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -36063,7 +36305,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -36550,7 +36792,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GB-3Expense (Autosaved) (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved) (Autosaved).xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1115">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -3063,6 +3063,396 @@
   </si>
   <si>
     <t>5.9.2018</t>
+  </si>
+  <si>
+    <t>ေရသန့္ 3</t>
+  </si>
+  <si>
+    <t>Tissue 1ထုပ္</t>
+  </si>
+  <si>
+    <t>Ngwe Hnin</t>
+  </si>
+  <si>
+    <t>မိိးဘုတ္</t>
+  </si>
+  <si>
+    <t>မင္းသန့္ဆိုင္ Battery အိုးငွား</t>
+  </si>
+  <si>
+    <t>ေန့စားခ 3</t>
+  </si>
+  <si>
+    <t>၀တုတ္ outdoor carry</t>
+  </si>
+  <si>
+    <t>အမွိုက္အိတ္/Mark</t>
+  </si>
+  <si>
+    <t>ဓာတ္ဆီ/ဒီဇယ္</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry </t>
+  </si>
+  <si>
+    <t>7J-3734/Hijet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honda Fit </t>
+  </si>
+  <si>
+    <t>လိုက္ကာ</t>
+  </si>
+  <si>
+    <t>ေကာ္ဖီ/သျကား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bingo </t>
+  </si>
+  <si>
+    <t>ဘိီးနက္</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probox </t>
+  </si>
+  <si>
+    <t>3pk,4pk,Oil Seal</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>4pk, ထပ္၀ယ္</t>
+  </si>
+  <si>
+    <t>ေရွ့ရွူး</t>
+  </si>
+  <si>
+    <t>ေဘာဂ်ြိဳင္း 2</t>
+  </si>
+  <si>
+    <t>CRV/Ko Pyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyundai </t>
+  </si>
+  <si>
+    <t>6.9.2018</t>
+  </si>
+  <si>
+    <t>ေရွာ့ဘား/ဟက္ေဘာ/ဘြတ္/ခေရာ့ေဘာ</t>
+  </si>
+  <si>
+    <t>GB မွ3 carry (San Win Maung)</t>
+  </si>
+  <si>
+    <t>GB/Hijet</t>
+  </si>
+  <si>
+    <t>Canter</t>
+  </si>
+  <si>
+    <t>8200 လိုက္ကာ</t>
+  </si>
+  <si>
+    <t>ေက်ာက္ျပား/ေကာ္သီး/ေကာ္ပတ္</t>
+  </si>
+  <si>
+    <t>၀တုတ္အျပန္</t>
+  </si>
+  <si>
+    <t>Fuji Co., 10%(Service)August</t>
+  </si>
+  <si>
+    <t>CC-7530/AD Van</t>
+  </si>
+  <si>
+    <t>GB2 Cary</t>
+  </si>
+  <si>
+    <t>ပန့္ေနာ္ဖယ္ခ်ိန္/၀ါရွာလဲ</t>
+  </si>
+  <si>
+    <t>Hiace/Ngwe Hnin Co.,</t>
+  </si>
+  <si>
+    <t>ကာဗိုက္ခဲ/မီးတိတ္</t>
+  </si>
+  <si>
+    <t>7G-7665/Probox</t>
+  </si>
+  <si>
+    <t>ရွဴးရိုက္</t>
+  </si>
+  <si>
+    <t>1Q-9016/</t>
+  </si>
+  <si>
+    <t>(Fuji Co.,-322000/9G-8323-250000/7E-4532-50000)</t>
+  </si>
+  <si>
+    <t>8.9.2018</t>
+  </si>
+  <si>
+    <t>7.9.2018</t>
+  </si>
+  <si>
+    <t>BB-3765/Caldina (Alignment)</t>
+  </si>
+  <si>
+    <t>အေျကြးကားက်န္ခဲ့</t>
+  </si>
+  <si>
+    <t>Free Ball</t>
+  </si>
+  <si>
+    <t>Porter 2</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>စကၠဴကတ္ထူ</t>
+  </si>
+  <si>
+    <t>ခံေဆး</t>
+  </si>
+  <si>
+    <t>ံHarrier</t>
+  </si>
+  <si>
+    <t>ပန့္ဆိုင္ကားသြားပို့</t>
+  </si>
+  <si>
+    <t>GB /Hijet</t>
+  </si>
+  <si>
+    <t>ေရသန့္6*400</t>
+  </si>
+  <si>
+    <t>Battery ခဲေဂါင္း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engine </t>
+  </si>
+  <si>
+    <t>သြပ္ျကိုး</t>
+  </si>
+  <si>
+    <t>Ye'Myat Thwin(1167*24Day)</t>
+  </si>
+  <si>
+    <t>Pajero Service 250500</t>
+  </si>
+  <si>
+    <t>S.S.P လူမွုဖူလံုေရးကား</t>
+  </si>
+  <si>
+    <t>ဓာတ္ဆိိ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အလွဴေငြ </t>
+  </si>
+  <si>
+    <t>Premium Disel</t>
+  </si>
+  <si>
+    <t>Probox Oil Seal</t>
+  </si>
+  <si>
+    <t>ဘရိတ္ရွဴး (အိမ္ဆို္င္ရွင္း)</t>
+  </si>
+  <si>
+    <t>ေဆးမွူတ္ကား စရံေပးေငြ</t>
+  </si>
+  <si>
+    <t>ေကာ္ဖိိ္၊ သျကားလံုး+ညဘက္</t>
+  </si>
+  <si>
+    <t>ေရေဆး စက္ေပါလစ္</t>
+  </si>
+  <si>
+    <t>ထမင္းဖိုး (18*1500)</t>
+  </si>
+  <si>
+    <t>ံBYN Kyaw Kyaw ပစၥည္းဖိုးရွင္း</t>
+  </si>
+  <si>
+    <t>ဟက္ဆိုင္ကိုရွင္းေငြ</t>
+  </si>
+  <si>
+    <t>ုု</t>
+  </si>
+  <si>
+    <t>8B-9657/Light Truck</t>
+  </si>
+  <si>
+    <t>1B-6475</t>
+  </si>
+  <si>
+    <t>2K-3548/Insight</t>
+  </si>
+  <si>
+    <t>9.9.2018</t>
+  </si>
+  <si>
+    <t>Epe ဘရိတ္ကာ</t>
+  </si>
+  <si>
+    <t>Epe Service</t>
+  </si>
+  <si>
+    <t>ေရသန့္ (3)</t>
+  </si>
+  <si>
+    <t>ေန့စားခ ေဘာ္ဒိိဆရာ</t>
+  </si>
+  <si>
+    <t>(တာယာ)ပို့ ဆိိထည့္</t>
+  </si>
+  <si>
+    <t>အေရွ့ဘရိတ္ရွဴး</t>
+  </si>
+  <si>
+    <t>အေနာက္ဘရိတ္ရွဴး</t>
+  </si>
+  <si>
+    <t>ေရွာ့ဘား၊သဲကာ 2</t>
+  </si>
+  <si>
+    <t>ေဆးစစ္ကေတာ့ (ေဆးပိုင္း)</t>
+  </si>
+  <si>
+    <t>ပန့္တပ္စမ္းခ</t>
+  </si>
+  <si>
+    <t>ေက်ာ္ေက်ာ္ထြန္း</t>
+  </si>
+  <si>
+    <t>7I-8699(Lite Ace)</t>
+  </si>
+  <si>
+    <t>ဂြမ္းထုပ္၊ပတ္တိိး</t>
+  </si>
+  <si>
+    <t>ညမုန့္ဖိုး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ျဖတ္ေက်ာက္စိမ္း </t>
+  </si>
+  <si>
+    <t>ွွဆိိဖိုး (ဥကၠာ)</t>
+  </si>
+  <si>
+    <t>10.9.2018</t>
+  </si>
+  <si>
+    <t>3M တိတ္</t>
+  </si>
+  <si>
+    <t>ဘိလပ္ေျမ 2</t>
+  </si>
+  <si>
+    <t>ဆိိျဖည့္</t>
+  </si>
+  <si>
+    <t>ေျကြးဆပ္</t>
+  </si>
+  <si>
+    <t>ဒရမ္သြားပို့ Carry</t>
+  </si>
+  <si>
+    <t>ဒရမ္သ 2</t>
+  </si>
+  <si>
+    <t>ကိုမ်ိဳးေမာင္ ျကိုထုတ္ေငြ</t>
+  </si>
+  <si>
+    <t>ေန့စားခ 2 ေဘာ္ဒိိ</t>
+  </si>
+  <si>
+    <t>ထမင္းဖိုး (16*1500)</t>
+  </si>
+  <si>
+    <t>စက္ေကာ္ပတ္၊တံခါးပက္ကာပင္</t>
+  </si>
+  <si>
+    <t>ညဘက္မုန့္</t>
+  </si>
+  <si>
+    <t>AB ေကာ္ 3</t>
+  </si>
+  <si>
+    <t>ေရတိုင္ဂိိဂ်ိိးေဆး၊ေအာက္ဖံုးလဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-3 Carry </t>
+  </si>
+  <si>
+    <t>၀တုတ္ျကိုထုတ္ေငြ (forklift ေလ်ာ္ေျကး)</t>
+  </si>
+  <si>
+    <t>Hiace /Ngwe Hnin</t>
+  </si>
+  <si>
+    <t>GB-1/GG-4967</t>
+  </si>
+  <si>
+    <t>BYN Kyaw kyaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Freshner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">၀တုတ္ Carry </t>
+  </si>
+  <si>
+    <t>9K-1620/Hiace</t>
+  </si>
+  <si>
+    <t>FF-1433/</t>
+  </si>
+  <si>
+    <t>6I-6568/Bongo</t>
+  </si>
+  <si>
+    <t>8E-4520/Liteace</t>
+  </si>
+  <si>
+    <t>Brake Pad(Mudon Mg Mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ေကာ္သိိး </t>
+  </si>
+  <si>
+    <t>14*1500</t>
+  </si>
+  <si>
+    <t>1Q-5416/Canter</t>
+  </si>
+  <si>
+    <t>တံျမတ္စည္း/အ၀တ္စ</t>
+  </si>
+  <si>
+    <t>Silicon (ေဆးေဘာ္ဒိိ)+Carry</t>
+  </si>
+  <si>
+    <t>ေရွ့ရွဴး+Carry</t>
+  </si>
+  <si>
+    <t>၀ရိန္ေခ်ာင္း+Carry</t>
+  </si>
+  <si>
+    <t>ဓာတ္ဆီ+Carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB 3 Carry </t>
+  </si>
+  <si>
+    <t>လင့္ 2+Carry</t>
+  </si>
+  <si>
+    <t>GB3 Hijet</t>
   </si>
 </sst>
 </file>
@@ -3471,7 +3861,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3734,6 +4124,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -29768,11 +30161,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M378"/>
+  <dimension ref="A1:N378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -29781,7 +30174,7 @@
     <col min="2" max="2" width="6.5703125" style="104" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="103" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="12" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="106" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="12" customWidth="1"/>
@@ -32142,252 +32535,472 @@
       <c r="A123" s="112" t="s">
         <v>984</v>
       </c>
-      <c r="B123" s="113"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
+      <c r="B123" s="113">
+        <v>2</v>
+      </c>
+      <c r="C123" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="D123" s="112" t="s">
+        <v>993</v>
+      </c>
       <c r="E123" s="112"/>
       <c r="F123" s="112"/>
-      <c r="G123" s="114"/>
+      <c r="G123" s="114">
+        <v>20000</v>
+      </c>
       <c r="H123" s="112"/>
     </row>
     <row r="124" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="98"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="98"/>
-      <c r="D124" s="98"/>
+      <c r="B124" s="20">
+        <v>1</v>
+      </c>
+      <c r="C124" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D124" s="98" t="s">
+        <v>992</v>
+      </c>
       <c r="E124" s="98"/>
       <c r="F124" s="98"/>
-      <c r="G124" s="40"/>
+      <c r="G124" s="40">
+        <v>3600</v>
+      </c>
       <c r="H124" s="98"/>
     </row>
     <row r="125" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="98"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="98"/>
-      <c r="D125" s="98"/>
+      <c r="B125" s="20">
+        <v>5</v>
+      </c>
+      <c r="C125" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D125" s="98" t="s">
+        <v>358</v>
+      </c>
       <c r="E125" s="98"/>
       <c r="F125" s="98"/>
-      <c r="G125" s="40"/>
+      <c r="G125" s="40">
+        <v>9000</v>
+      </c>
       <c r="H125" s="98"/>
     </row>
     <row r="126" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="98"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="98"/>
-      <c r="D126" s="98"/>
-      <c r="E126" s="98"/>
+      <c r="B126" s="20">
+        <v>2</v>
+      </c>
+      <c r="C126" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D126" s="98" t="s">
+        <v>746</v>
+      </c>
+      <c r="E126" s="98" t="s">
+        <v>995</v>
+      </c>
       <c r="F126" s="98"/>
-      <c r="G126" s="40"/>
+      <c r="G126" s="40">
+        <v>15000</v>
+      </c>
       <c r="H126" s="98"/>
     </row>
     <row r="127" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="98"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="98"/>
-      <c r="D127" s="98"/>
+      <c r="B127" s="20">
+        <v>1</v>
+      </c>
+      <c r="C127" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" s="98" t="s">
+        <v>985</v>
+      </c>
       <c r="E127" s="98"/>
       <c r="F127" s="98"/>
-      <c r="G127" s="40"/>
+      <c r="G127" s="40">
+        <v>1200</v>
+      </c>
       <c r="H127" s="98"/>
     </row>
     <row r="128" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="98"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="98"/>
-      <c r="D128" s="98"/>
+      <c r="B128" s="20">
+        <v>1</v>
+      </c>
+      <c r="C128" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" s="98" t="s">
+        <v>986</v>
+      </c>
       <c r="E128" s="98"/>
       <c r="F128" s="98"/>
-      <c r="G128" s="40"/>
+      <c r="G128" s="40">
+        <v>1750</v>
+      </c>
       <c r="H128" s="98"/>
     </row>
     <row r="129" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="98"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="98"/>
-      <c r="D129" s="98"/>
+      <c r="B129" s="20">
+        <v>2</v>
+      </c>
+      <c r="C129" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D129" s="98" t="s">
+        <v>698</v>
+      </c>
       <c r="E129" s="98"/>
       <c r="F129" s="98"/>
-      <c r="G129" s="40"/>
+      <c r="G129" s="40">
+        <v>4500</v>
+      </c>
       <c r="H129" s="98"/>
     </row>
     <row r="130" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="98"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="98"/>
-      <c r="D130" s="98"/>
-      <c r="E130" s="98"/>
+      <c r="B130" s="20">
+        <v>3</v>
+      </c>
+      <c r="C130" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D130" s="98" t="s">
+        <v>680</v>
+      </c>
+      <c r="E130" s="98" t="s">
+        <v>996</v>
+      </c>
       <c r="F130" s="98"/>
-      <c r="G130" s="40"/>
+      <c r="G130" s="40">
+        <v>73500</v>
+      </c>
       <c r="H130" s="98"/>
     </row>
     <row r="131" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="98"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="98"/>
-      <c r="E131" s="98"/>
+      <c r="B131" s="20">
+        <v>3</v>
+      </c>
+      <c r="C131" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="98" t="s">
+        <v>997</v>
+      </c>
+      <c r="E131" s="98" t="s">
+        <v>996</v>
+      </c>
       <c r="F131" s="98"/>
-      <c r="G131" s="40"/>
+      <c r="G131" s="40">
+        <v>26500</v>
+      </c>
       <c r="H131" s="98"/>
     </row>
     <row r="132" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="98"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="98"/>
+      <c r="B132" s="20">
+        <v>1</v>
+      </c>
+      <c r="C132" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D132" s="98" t="s">
+        <v>998</v>
+      </c>
       <c r="E132" s="98"/>
       <c r="F132" s="98"/>
-      <c r="G132" s="40"/>
+      <c r="G132" s="40">
+        <v>2450</v>
+      </c>
       <c r="H132" s="98"/>
     </row>
     <row r="133" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="98"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="98"/>
-      <c r="D133" s="98"/>
-      <c r="E133" s="98"/>
+      <c r="B133" s="20">
+        <v>2</v>
+      </c>
+      <c r="C133" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="98" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E133" s="98" t="s">
+        <v>999</v>
+      </c>
       <c r="F133" s="98"/>
-      <c r="G133" s="40"/>
+      <c r="G133" s="40">
+        <v>1500</v>
+      </c>
       <c r="H133" s="98"/>
     </row>
     <row r="134" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="98"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="98"/>
-      <c r="E134" s="98"/>
+      <c r="B134" s="20">
+        <v>2</v>
+      </c>
+      <c r="C134" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D134" s="98" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E134" s="98" t="s">
+        <v>987</v>
+      </c>
       <c r="F134" s="98"/>
-      <c r="G134" s="40"/>
+      <c r="G134" s="40">
+        <v>67000</v>
+      </c>
       <c r="H134" s="98"/>
     </row>
     <row r="135" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="98"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="98"/>
-      <c r="E135" s="98"/>
+      <c r="B135" s="20">
+        <v>2</v>
+      </c>
+      <c r="C135" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D135" s="98" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E135" s="98" t="s">
+        <v>1001</v>
+      </c>
       <c r="F135" s="98"/>
-      <c r="G135" s="40"/>
+      <c r="G135" s="40">
+        <v>9900</v>
+      </c>
       <c r="H135" s="98"/>
     </row>
     <row r="136" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="98"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="98"/>
-      <c r="E136" s="98"/>
+      <c r="B136" s="20">
+        <v>2</v>
+      </c>
+      <c r="C136" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D136" s="98" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E136" s="98" t="s">
+        <v>1003</v>
+      </c>
       <c r="F136" s="98"/>
-      <c r="G136" s="40"/>
+      <c r="G136" s="40">
+        <v>7500</v>
+      </c>
       <c r="H136" s="98"/>
     </row>
     <row r="137" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="98"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="98"/>
-      <c r="E137" s="98"/>
+      <c r="B137" s="20">
+        <v>2</v>
+      </c>
+      <c r="C137" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="98" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E137" s="98" t="s">
+        <v>1003</v>
+      </c>
       <c r="F137" s="98"/>
-      <c r="G137" s="40"/>
+      <c r="G137" s="40">
+        <v>10000</v>
+      </c>
       <c r="H137" s="98"/>
     </row>
     <row r="138" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="98"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="98"/>
-      <c r="E138" s="98"/>
+      <c r="B138" s="20">
+        <v>2</v>
+      </c>
+      <c r="C138" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D138" s="98" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E138" s="98" t="s">
+        <v>1007</v>
+      </c>
       <c r="F138" s="98"/>
-      <c r="G138" s="40"/>
+      <c r="G138" s="40">
+        <v>30000</v>
+      </c>
       <c r="H138" s="98"/>
     </row>
     <row r="139" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="98"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="98"/>
+      <c r="B139" s="20">
+        <v>5</v>
+      </c>
+      <c r="C139" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D139" s="98" t="s">
+        <v>405</v>
+      </c>
       <c r="E139" s="98"/>
       <c r="F139" s="98"/>
-      <c r="G139" s="40"/>
+      <c r="G139" s="40">
+        <v>11500</v>
+      </c>
       <c r="H139" s="98"/>
     </row>
     <row r="140" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="98"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="98"/>
-      <c r="D140" s="98"/>
+      <c r="B140" s="20">
+        <v>5</v>
+      </c>
+      <c r="C140" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D140" s="98" t="s">
+        <v>1011</v>
+      </c>
       <c r="E140" s="98"/>
       <c r="F140" s="98"/>
-      <c r="G140" s="40"/>
+      <c r="G140" s="40">
+        <v>1000</v>
+      </c>
       <c r="H140" s="98"/>
     </row>
     <row r="141" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="98"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="98"/>
-      <c r="D141" s="98"/>
+      <c r="B141" s="20">
+        <v>1</v>
+      </c>
+      <c r="C141" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D141" s="98" t="s">
+        <v>988</v>
+      </c>
       <c r="E141" s="98"/>
       <c r="F141" s="98"/>
-      <c r="G141" s="40"/>
+      <c r="G141" s="40">
+        <v>2000</v>
+      </c>
       <c r="H141" s="98"/>
     </row>
     <row r="142" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="98"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="98"/>
-      <c r="D142" s="98"/>
+      <c r="B142" s="20">
+        <v>2</v>
+      </c>
+      <c r="C142" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D142" s="98" t="s">
+        <v>989</v>
+      </c>
       <c r="E142" s="98"/>
       <c r="F142" s="98"/>
-      <c r="G142" s="40"/>
+      <c r="G142" s="40">
+        <v>6000</v>
+      </c>
       <c r="H142" s="98"/>
     </row>
     <row r="143" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="98"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="98"/>
-      <c r="D143" s="98"/>
+      <c r="B143" s="20">
+        <v>4</v>
+      </c>
+      <c r="C143" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D143" s="98" t="s">
+        <v>990</v>
+      </c>
       <c r="E143" s="98"/>
       <c r="F143" s="98"/>
-      <c r="G143" s="40"/>
+      <c r="G143" s="40">
+        <v>38000</v>
+      </c>
       <c r="H143" s="98"/>
     </row>
     <row r="144" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="98"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="98"/>
-      <c r="D144" s="98"/>
-      <c r="E144" s="98"/>
+      <c r="B144" s="20">
+        <v>2</v>
+      </c>
+      <c r="C144" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D144" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="E144" s="98" t="s">
+        <v>1008</v>
+      </c>
       <c r="F144" s="98"/>
-      <c r="G144" s="40"/>
+      <c r="G144" s="40">
+        <v>2400</v>
+      </c>
       <c r="H144" s="98"/>
     </row>
     <row r="145" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="98"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="98"/>
-      <c r="D145" s="98"/>
+      <c r="B145" s="20">
+        <v>1</v>
+      </c>
+      <c r="C145" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D145" s="98" t="s">
+        <v>74</v>
+      </c>
       <c r="E145" s="98"/>
       <c r="F145" s="98"/>
-      <c r="G145" s="40"/>
+      <c r="G145" s="40">
+        <v>1000</v>
+      </c>
       <c r="H145" s="98"/>
     </row>
     <row r="146" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="98"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="98"/>
+      <c r="B146" s="20">
+        <v>5</v>
+      </c>
+      <c r="C146" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D146" s="98" t="s">
+        <v>991</v>
+      </c>
       <c r="E146" s="98"/>
       <c r="F146" s="98"/>
-      <c r="G146" s="40"/>
+      <c r="G146" s="40">
+        <v>2000</v>
+      </c>
       <c r="H146" s="98"/>
     </row>
-    <row r="147" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A147" s="98"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="98"/>
-      <c r="D147" s="98"/>
+      <c r="B147" s="20">
+        <v>6</v>
+      </c>
+      <c r="C147" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" s="98" t="s">
+        <v>718</v>
+      </c>
       <c r="E147" s="98"/>
       <c r="F147" s="98"/>
-      <c r="G147" s="40"/>
+      <c r="G147" s="109">
+        <v>30000</v>
+      </c>
       <c r="H147" s="98"/>
     </row>
     <row r="148" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -32396,8 +33009,13 @@
       <c r="C148" s="98"/>
       <c r="D148" s="98"/>
       <c r="E148" s="98"/>
-      <c r="F148" s="98"/>
-      <c r="G148" s="40"/>
+      <c r="F148" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="G148" s="108">
+        <f>SUM(G123:G147)</f>
+        <v>377300</v>
+      </c>
       <c r="H148" s="98"/>
     </row>
     <row r="149" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -32406,18 +33024,26 @@
       <c r="C149" s="98"/>
       <c r="D149" s="98"/>
       <c r="E149" s="98"/>
-      <c r="F149" s="98"/>
-      <c r="G149" s="40"/>
+      <c r="F149" s="130" t="s">
+        <v>372</v>
+      </c>
+      <c r="G149" s="97">
+        <v>155100</v>
+      </c>
       <c r="H149" s="98"/>
     </row>
-    <row r="150" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A150" s="98"/>
       <c r="B150" s="20"/>
       <c r="C150" s="98"/>
       <c r="D150" s="98"/>
       <c r="E150" s="98"/>
-      <c r="F150" s="98"/>
-      <c r="G150" s="40"/>
+      <c r="F150" s="130" t="s">
+        <v>373</v>
+      </c>
+      <c r="G150" s="107">
+        <v>112000</v>
+      </c>
       <c r="H150" s="98"/>
     </row>
     <row r="151" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -32427,228 +33053,416 @@
       <c r="D151" s="98"/>
       <c r="E151" s="98"/>
       <c r="F151" s="98"/>
-      <c r="G151" s="40"/>
+      <c r="G151" s="97">
+        <f>SUM(G148:G150)</f>
+        <v>644400</v>
+      </c>
       <c r="H151" s="98"/>
     </row>
-    <row r="152" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A152" s="98"/>
       <c r="B152" s="20"/>
       <c r="C152" s="98"/>
       <c r="D152" s="98"/>
       <c r="E152" s="98"/>
-      <c r="F152" s="98"/>
-      <c r="G152" s="40"/>
+      <c r="F152" s="130" t="s">
+        <v>374</v>
+      </c>
+      <c r="G152" s="107">
+        <v>724000</v>
+      </c>
       <c r="H152" s="98"/>
     </row>
-    <row r="153" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="98"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="98"/>
-      <c r="E153" s="98"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="40"/>
-      <c r="H153" s="98"/>
+    <row r="153" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A153" s="115"/>
+      <c r="B153" s="116"/>
+      <c r="C153" s="115"/>
+      <c r="D153" s="115"/>
+      <c r="E153" s="115"/>
+      <c r="F153" s="115"/>
+      <c r="G153" s="117">
+        <f>G152-G151</f>
+        <v>79600</v>
+      </c>
+      <c r="H153" s="115"/>
     </row>
     <row r="154" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="98"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="98"/>
-      <c r="D154" s="98"/>
-      <c r="E154" s="98"/>
-      <c r="F154" s="98"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="98"/>
+      <c r="A154" s="112" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B154" s="113">
+        <v>1</v>
+      </c>
+      <c r="C154" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="112" t="s">
+        <v>746</v>
+      </c>
+      <c r="E154" s="112" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F154" s="112"/>
+      <c r="G154" s="114">
+        <v>15000</v>
+      </c>
+      <c r="H154" s="112"/>
     </row>
     <row r="155" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="98"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="98"/>
-      <c r="D155" s="98"/>
-      <c r="E155" s="98"/>
+      <c r="B155" s="20">
+        <v>2</v>
+      </c>
+      <c r="C155" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D155" s="98" t="s">
+        <v>829</v>
+      </c>
+      <c r="E155" s="98" t="s">
+        <v>1013</v>
+      </c>
       <c r="F155" s="98"/>
-      <c r="G155" s="40"/>
+      <c r="G155" s="40">
+        <v>1000</v>
+      </c>
       <c r="H155" s="98"/>
     </row>
     <row r="156" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="98"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="98"/>
-      <c r="D156" s="98"/>
+      <c r="B156" s="20">
+        <v>1</v>
+      </c>
+      <c r="C156" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D156" s="98" t="s">
+        <v>123</v>
+      </c>
       <c r="E156" s="98"/>
       <c r="F156" s="98"/>
-      <c r="G156" s="40"/>
+      <c r="G156" s="40">
+        <v>500</v>
+      </c>
       <c r="H156" s="98"/>
     </row>
     <row r="157" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="98"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="98"/>
-      <c r="D157" s="98"/>
-      <c r="E157" s="98"/>
+      <c r="B157" s="20">
+        <v>3</v>
+      </c>
+      <c r="C157" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D157" s="98" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E157" s="98" t="s">
+        <v>945</v>
+      </c>
       <c r="F157" s="98"/>
-      <c r="G157" s="40"/>
+      <c r="G157" s="40">
+        <v>7800</v>
+      </c>
       <c r="H157" s="98"/>
     </row>
     <row r="158" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="98"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="98"/>
-      <c r="D158" s="98"/>
+      <c r="B158" s="20">
+        <v>3</v>
+      </c>
+      <c r="C158" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D158" s="98" t="s">
+        <v>1015</v>
+      </c>
       <c r="E158" s="98"/>
       <c r="F158" s="98"/>
-      <c r="G158" s="40"/>
+      <c r="G158" s="40">
+        <v>10500</v>
+      </c>
       <c r="H158" s="98"/>
     </row>
     <row r="159" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="98"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="98"/>
-      <c r="D159" s="98"/>
+      <c r="B159" s="20">
+        <v>2</v>
+      </c>
+      <c r="C159" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D159" s="98" t="s">
+        <v>62</v>
+      </c>
       <c r="E159" s="98"/>
       <c r="F159" s="98"/>
-      <c r="G159" s="40"/>
+      <c r="G159" s="40">
+        <v>7600</v>
+      </c>
       <c r="H159" s="98"/>
     </row>
     <row r="160" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="98"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="98"/>
-      <c r="D160" s="98"/>
+      <c r="B160" s="20">
+        <v>5</v>
+      </c>
+      <c r="C160" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" s="98" t="s">
+        <v>1016</v>
+      </c>
       <c r="E160" s="98"/>
       <c r="F160" s="98"/>
-      <c r="G160" s="40"/>
+      <c r="G160" s="40">
+        <v>1000</v>
+      </c>
       <c r="H160" s="98"/>
     </row>
     <row r="161" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="98"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="98"/>
-      <c r="D161" s="98"/>
+      <c r="B161" s="20">
+        <v>2</v>
+      </c>
+      <c r="C161" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D161" s="98" t="s">
+        <v>1017</v>
+      </c>
       <c r="E161" s="98"/>
       <c r="F161" s="98"/>
-      <c r="G161" s="40"/>
+      <c r="G161" s="40">
+        <v>20000</v>
+      </c>
       <c r="H161" s="98"/>
     </row>
     <row r="162" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="98"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="98"/>
-      <c r="D162" s="98"/>
+      <c r="B162" s="20">
+        <v>2</v>
+      </c>
+      <c r="C162" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D162" s="98" t="s">
+        <v>156</v>
+      </c>
       <c r="E162" s="98"/>
       <c r="F162" s="98"/>
-      <c r="G162" s="40"/>
+      <c r="G162" s="40">
+        <v>6000</v>
+      </c>
       <c r="H162" s="98"/>
     </row>
     <row r="163" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="98"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="98"/>
+      <c r="B163" s="20">
+        <v>5</v>
+      </c>
+      <c r="C163" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="98" t="s">
+        <v>405</v>
+      </c>
       <c r="E163" s="98"/>
       <c r="F163" s="98"/>
-      <c r="G163" s="40"/>
+      <c r="G163" s="40">
+        <v>8500</v>
+      </c>
       <c r="H163" s="98"/>
     </row>
     <row r="164" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="98"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="98"/>
-      <c r="D164" s="98"/>
-      <c r="E164" s="98"/>
+      <c r="B164" s="20">
+        <v>2</v>
+      </c>
+      <c r="C164" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D164" s="98" t="s">
+        <v>969</v>
+      </c>
+      <c r="E164" s="98" t="s">
+        <v>1018</v>
+      </c>
       <c r="F164" s="98"/>
-      <c r="G164" s="40"/>
+      <c r="G164" s="40">
+        <v>4500</v>
+      </c>
       <c r="H164" s="98"/>
     </row>
     <row r="165" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="98"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="98"/>
-      <c r="D165" s="98"/>
+      <c r="B165" s="20">
+        <v>5</v>
+      </c>
+      <c r="C165" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" s="98" t="s">
+        <v>1019</v>
+      </c>
       <c r="E165" s="98"/>
       <c r="F165" s="98"/>
-      <c r="G165" s="40"/>
+      <c r="G165" s="40">
+        <v>1000</v>
+      </c>
       <c r="H165" s="98"/>
     </row>
     <row r="166" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="98"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="98"/>
-      <c r="D166" s="98"/>
-      <c r="E166" s="98"/>
+      <c r="B166" s="20">
+        <v>2</v>
+      </c>
+      <c r="C166" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D166" s="98" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E166" s="98" t="s">
+        <v>1021</v>
+      </c>
       <c r="F166" s="98"/>
-      <c r="G166" s="40"/>
+      <c r="G166" s="40">
+        <v>16000</v>
+      </c>
       <c r="H166" s="98"/>
     </row>
     <row r="167" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="98"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="98"/>
-      <c r="D167" s="98"/>
-      <c r="E167" s="98"/>
+      <c r="B167" s="20">
+        <v>2</v>
+      </c>
+      <c r="C167" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D167" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="E167" s="98" t="s">
+        <v>227</v>
+      </c>
       <c r="F167" s="98"/>
-      <c r="G167" s="40"/>
+      <c r="G167" s="40">
+        <v>21500</v>
+      </c>
       <c r="H167" s="98"/>
     </row>
     <row r="168" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="98"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="98"/>
-      <c r="D168" s="98"/>
+      <c r="B168" s="20">
+        <v>3</v>
+      </c>
+      <c r="C168" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D168" s="98" t="s">
+        <v>1022</v>
+      </c>
       <c r="E168" s="98"/>
       <c r="F168" s="98"/>
-      <c r="G168" s="40"/>
+      <c r="G168" s="40">
+        <v>7800</v>
+      </c>
       <c r="H168" s="98"/>
     </row>
     <row r="169" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="98"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="98"/>
-      <c r="D169" s="98"/>
+      <c r="B169" s="20">
+        <v>5</v>
+      </c>
+      <c r="C169" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169" s="98" t="s">
+        <v>358</v>
+      </c>
       <c r="E169" s="98"/>
       <c r="F169" s="98"/>
-      <c r="G169" s="40"/>
+      <c r="G169" s="40">
+        <v>3000</v>
+      </c>
       <c r="H169" s="98"/>
     </row>
     <row r="170" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="98"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="98"/>
-      <c r="D170" s="98"/>
-      <c r="E170" s="98"/>
+      <c r="B170" s="20">
+        <v>2</v>
+      </c>
+      <c r="C170" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D170" s="98" t="s">
+        <v>319</v>
+      </c>
+      <c r="E170" s="98" t="s">
+        <v>1023</v>
+      </c>
       <c r="F170" s="98"/>
-      <c r="G170" s="40"/>
+      <c r="G170" s="40">
+        <v>9000</v>
+      </c>
       <c r="H170" s="98"/>
     </row>
     <row r="171" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="98"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="98"/>
-      <c r="D171" s="98"/>
-      <c r="E171" s="98"/>
+      <c r="B171" s="20">
+        <v>2</v>
+      </c>
+      <c r="C171" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171" s="98" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E171" s="98" t="s">
+        <v>1025</v>
+      </c>
       <c r="F171" s="98"/>
-      <c r="G171" s="40"/>
+      <c r="G171" s="40">
+        <v>10000</v>
+      </c>
       <c r="H171" s="98"/>
     </row>
     <row r="172" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="98"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="98"/>
-      <c r="D172" s="98"/>
+      <c r="B172" s="20">
+        <v>4</v>
+      </c>
+      <c r="C172" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D172" s="98" t="s">
+        <v>990</v>
+      </c>
       <c r="E172" s="98"/>
       <c r="F172" s="98"/>
-      <c r="G172" s="40"/>
+      <c r="G172" s="131">
+        <v>38000</v>
+      </c>
       <c r="H172" s="98"/>
     </row>
-    <row r="173" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A173" s="98"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="98"/>
-      <c r="D173" s="98"/>
+      <c r="B173" s="20">
+        <v>6</v>
+      </c>
+      <c r="C173" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D173" s="98" t="s">
+        <v>659</v>
+      </c>
       <c r="E173" s="98"/>
-      <c r="F173" s="98"/>
-      <c r="G173" s="40"/>
-      <c r="H173" s="98"/>
+      <c r="F173" s="119"/>
+      <c r="G173" s="109">
+        <v>25500</v>
+      </c>
+      <c r="H173" s="120"/>
     </row>
     <row r="174" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="98"/>
@@ -32656,8 +33470,13 @@
       <c r="C174" s="98"/>
       <c r="D174" s="98"/>
       <c r="E174" s="98"/>
-      <c r="F174" s="98"/>
-      <c r="G174" s="40"/>
+      <c r="F174" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="G174" s="132">
+        <f>SUM(G154:G173)</f>
+        <v>214200</v>
+      </c>
       <c r="H174" s="98"/>
     </row>
     <row r="175" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -32666,8 +33485,12 @@
       <c r="C175" s="98"/>
       <c r="D175" s="98"/>
       <c r="E175" s="98"/>
-      <c r="F175" s="98"/>
-      <c r="G175" s="40"/>
+      <c r="F175" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G175" s="40">
+        <v>180500</v>
+      </c>
       <c r="H175" s="98"/>
     </row>
     <row r="176" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -32676,648 +33499,1145 @@
       <c r="C176" s="98"/>
       <c r="D176" s="98"/>
       <c r="E176" s="98"/>
-      <c r="F176" s="98"/>
-      <c r="G176" s="40"/>
+      <c r="F176" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="G176" s="40">
+        <v>8000</v>
+      </c>
       <c r="H176" s="98"/>
     </row>
-    <row r="177" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A177" s="98"/>
       <c r="B177" s="20"/>
       <c r="C177" s="98"/>
       <c r="D177" s="98"/>
       <c r="E177" s="98"/>
-      <c r="F177" s="98"/>
-      <c r="G177" s="40"/>
+      <c r="F177" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G177" s="109">
+        <v>356500</v>
+      </c>
       <c r="H177" s="98"/>
     </row>
-    <row r="178" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="98"/>
       <c r="B178" s="20"/>
       <c r="C178" s="98"/>
       <c r="D178" s="98"/>
       <c r="E178" s="98"/>
       <c r="F178" s="98"/>
-      <c r="G178" s="40"/>
+      <c r="G178" s="108">
+        <f>SUM(G174:G177)</f>
+        <v>759200</v>
+      </c>
       <c r="H178" s="98"/>
     </row>
-    <row r="179" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="98"/>
       <c r="B179" s="20"/>
       <c r="C179" s="98"/>
       <c r="D179" s="98"/>
       <c r="E179" s="98"/>
-      <c r="F179" s="98"/>
-      <c r="G179" s="40"/>
+      <c r="F179" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G179" s="40">
+        <v>622000</v>
+      </c>
       <c r="H179" s="98"/>
-    </row>
-    <row r="180" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I179" s="123" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J179" s="123"/>
+      <c r="K179" s="123"/>
+      <c r="L179" s="123"/>
+      <c r="M179" s="123"/>
+      <c r="N179" s="123"/>
+    </row>
+    <row r="180" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A180" s="98"/>
       <c r="B180" s="20"/>
       <c r="C180" s="98"/>
       <c r="D180" s="98"/>
       <c r="E180" s="98"/>
-      <c r="F180" s="98"/>
-      <c r="G180" s="40"/>
+      <c r="F180" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="G180" s="109">
+        <v>484800</v>
+      </c>
       <c r="H180" s="98"/>
     </row>
-    <row r="181" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="98"/>
       <c r="B181" s="20"/>
       <c r="C181" s="98"/>
       <c r="D181" s="98"/>
       <c r="E181" s="98"/>
       <c r="F181" s="98"/>
-      <c r="G181" s="40"/>
+      <c r="G181" s="40">
+        <f>SUM(G179:G180)</f>
+        <v>1106800</v>
+      </c>
       <c r="H181" s="98"/>
     </row>
-    <row r="182" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A182" s="98"/>
       <c r="B182" s="20"/>
       <c r="C182" s="98"/>
       <c r="D182" s="98"/>
       <c r="E182" s="98"/>
       <c r="F182" s="98"/>
-      <c r="G182" s="40"/>
+      <c r="G182" s="109">
+        <v>759200</v>
+      </c>
       <c r="H182" s="98"/>
     </row>
-    <row r="183" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="98"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="98"/>
-      <c r="D183" s="98"/>
-      <c r="E183" s="98"/>
-      <c r="F183" s="98"/>
-      <c r="G183" s="40"/>
+    <row r="183" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A183" s="115"/>
+      <c r="B183" s="116"/>
+      <c r="C183" s="115"/>
+      <c r="D183" s="115"/>
+      <c r="E183" s="115"/>
+      <c r="F183" s="115"/>
+      <c r="G183" s="117">
+        <f>G181-G182</f>
+        <v>347600</v>
+      </c>
       <c r="H183" s="98"/>
     </row>
-    <row r="184" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="98"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="98"/>
-      <c r="D184" s="98"/>
-      <c r="E184" s="98"/>
-      <c r="F184" s="98"/>
-      <c r="G184" s="40"/>
+    <row r="184" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="112" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B184" s="113">
+        <v>1</v>
+      </c>
+      <c r="C184" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D184" s="112" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E184" s="112" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F184" s="112"/>
+      <c r="G184" s="114">
+        <v>3000</v>
+      </c>
       <c r="H184" s="98"/>
     </row>
-    <row r="185" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="98"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="98"/>
-      <c r="D185" s="98"/>
-      <c r="E185" s="98"/>
+      <c r="B185" s="20">
+        <v>2</v>
+      </c>
+      <c r="C185" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D185" s="98" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E185" s="98" t="s">
+        <v>1032</v>
+      </c>
       <c r="F185" s="98"/>
-      <c r="G185" s="40"/>
+      <c r="G185" s="40">
+        <v>3000</v>
+      </c>
       <c r="H185" s="98"/>
     </row>
-    <row r="186" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="98"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="98"/>
-      <c r="D186" s="98"/>
-      <c r="E186" s="98"/>
+      <c r="B186" s="20">
+        <v>2</v>
+      </c>
+      <c r="C186" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D186" s="98" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E186" s="98" t="s">
+        <v>1033</v>
+      </c>
       <c r="F186" s="98"/>
-      <c r="G186" s="40"/>
+      <c r="G186" s="40">
+        <v>5000</v>
+      </c>
       <c r="H186" s="98"/>
     </row>
-    <row r="187" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="98"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="98"/>
-      <c r="D187" s="98"/>
+      <c r="B187" s="20">
+        <v>3</v>
+      </c>
+      <c r="C187" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" s="98" t="s">
+        <v>1034</v>
+      </c>
       <c r="E187" s="98"/>
       <c r="F187" s="98"/>
-      <c r="G187" s="40"/>
+      <c r="G187" s="40">
+        <v>900</v>
+      </c>
       <c r="H187" s="98"/>
     </row>
-    <row r="188" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="98"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="98"/>
-      <c r="D188" s="98"/>
+      <c r="B188" s="20">
+        <v>5</v>
+      </c>
+      <c r="C188" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D188" s="98" t="s">
+        <v>358</v>
+      </c>
       <c r="E188" s="98"/>
       <c r="F188" s="98"/>
-      <c r="G188" s="40"/>
+      <c r="G188" s="40">
+        <v>12000</v>
+      </c>
       <c r="H188" s="98"/>
     </row>
-    <row r="189" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="98"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="98"/>
-      <c r="D189" s="98"/>
+      <c r="B189" s="20">
+        <v>1</v>
+      </c>
+      <c r="C189" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D189" s="98" t="s">
+        <v>107</v>
+      </c>
       <c r="E189" s="98"/>
       <c r="F189" s="98"/>
-      <c r="G189" s="40"/>
+      <c r="G189" s="40">
+        <v>4000</v>
+      </c>
       <c r="H189" s="98"/>
     </row>
-    <row r="190" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="98"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="98"/>
-      <c r="D190" s="98"/>
-      <c r="E190" s="98"/>
+      <c r="B190" s="20">
+        <v>3</v>
+      </c>
+      <c r="C190" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D190" s="98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E190" s="98" t="s">
+        <v>384</v>
+      </c>
       <c r="F190" s="98"/>
-      <c r="G190" s="40"/>
+      <c r="G190" s="40">
+        <v>8000</v>
+      </c>
       <c r="H190" s="98"/>
     </row>
-    <row r="191" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="98"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="98"/>
-      <c r="D191" s="98"/>
-      <c r="E191" s="98"/>
+      <c r="B191" s="20">
+        <v>2</v>
+      </c>
+      <c r="C191" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D191" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="E191" s="98" t="s">
+        <v>802</v>
+      </c>
       <c r="F191" s="98"/>
-      <c r="G191" s="40"/>
+      <c r="G191" s="40">
+        <v>1500</v>
+      </c>
       <c r="H191" s="98"/>
     </row>
-    <row r="192" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="98"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="98"/>
-      <c r="D192" s="98"/>
-      <c r="E192" s="98"/>
+      <c r="B192" s="20">
+        <v>2</v>
+      </c>
+      <c r="C192" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" s="98" t="s">
+        <v>969</v>
+      </c>
+      <c r="E192" s="98" t="s">
+        <v>802</v>
+      </c>
       <c r="F192" s="98"/>
-      <c r="G192" s="40"/>
+      <c r="G192" s="40">
+        <v>6000</v>
+      </c>
       <c r="H192" s="98"/>
     </row>
     <row r="193" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="98"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="98"/>
-      <c r="D193" s="98"/>
+      <c r="B193" s="20">
+        <v>1</v>
+      </c>
+      <c r="C193" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D193" s="98" t="s">
+        <v>123</v>
+      </c>
       <c r="E193" s="98"/>
       <c r="F193" s="98"/>
-      <c r="G193" s="40"/>
+      <c r="G193" s="40">
+        <v>1000</v>
+      </c>
       <c r="H193" s="98"/>
     </row>
     <row r="194" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="98"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="98"/>
-      <c r="D194" s="98"/>
+      <c r="B194" s="20">
+        <v>5</v>
+      </c>
+      <c r="C194" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D194" s="98" t="s">
+        <v>257</v>
+      </c>
       <c r="E194" s="98"/>
       <c r="F194" s="98"/>
-      <c r="G194" s="40"/>
+      <c r="G194" s="40">
+        <v>1000</v>
+      </c>
       <c r="H194" s="98"/>
     </row>
     <row r="195" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="98"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="98"/>
-      <c r="D195" s="98"/>
-      <c r="E195" s="98"/>
+      <c r="B195" s="20">
+        <v>2</v>
+      </c>
+      <c r="C195" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" s="98" t="s">
+        <v>752</v>
+      </c>
+      <c r="E195" s="98" t="s">
+        <v>878</v>
+      </c>
       <c r="F195" s="98"/>
-      <c r="G195" s="40"/>
+      <c r="G195" s="40">
+        <v>2000</v>
+      </c>
       <c r="H195" s="98"/>
     </row>
     <row r="196" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="98"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="98"/>
-      <c r="D196" s="98"/>
-      <c r="E196" s="98"/>
+      <c r="B196" s="20">
+        <v>2</v>
+      </c>
+      <c r="C196" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D196" s="98" t="s">
+        <v>365</v>
+      </c>
+      <c r="E196" s="98" t="s">
+        <v>1036</v>
+      </c>
       <c r="F196" s="98"/>
-      <c r="G196" s="40"/>
+      <c r="G196" s="40">
+        <v>9000</v>
+      </c>
       <c r="H196" s="98"/>
     </row>
     <row r="197" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="98"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="98"/>
-      <c r="D197" s="98"/>
+      <c r="B197" s="20">
+        <v>5</v>
+      </c>
+      <c r="C197" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D197" s="98" t="s">
+        <v>1037</v>
+      </c>
       <c r="E197" s="98"/>
       <c r="F197" s="98"/>
-      <c r="G197" s="40"/>
+      <c r="G197" s="40">
+        <v>1500</v>
+      </c>
       <c r="H197" s="98"/>
     </row>
     <row r="198" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="98"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="98"/>
-      <c r="D198" s="98"/>
+      <c r="B198" s="20">
+        <v>5</v>
+      </c>
+      <c r="C198" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D198" s="98" t="s">
+        <v>405</v>
+      </c>
       <c r="E198" s="98"/>
       <c r="F198" s="98"/>
-      <c r="G198" s="40"/>
+      <c r="G198" s="40">
+        <v>9000</v>
+      </c>
       <c r="H198" s="98"/>
     </row>
     <row r="199" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="98"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="98"/>
-      <c r="D199" s="98"/>
-      <c r="E199" s="98"/>
+      <c r="B199" s="20">
+        <v>2</v>
+      </c>
+      <c r="C199" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D199" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="E199" s="98" t="s">
+        <v>1038</v>
+      </c>
       <c r="F199" s="98"/>
-      <c r="G199" s="40"/>
+      <c r="G199" s="40">
+        <v>5000</v>
+      </c>
       <c r="H199" s="98"/>
     </row>
     <row r="200" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="98"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="98"/>
-      <c r="D200" s="98"/>
+      <c r="B200" s="20">
+        <v>1</v>
+      </c>
+      <c r="C200" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D200" s="98" t="s">
+        <v>1039</v>
+      </c>
       <c r="E200" s="98"/>
       <c r="F200" s="98"/>
-      <c r="G200" s="40"/>
+      <c r="G200" s="40">
+        <v>2400</v>
+      </c>
       <c r="H200" s="98"/>
     </row>
     <row r="201" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="98"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="98"/>
-      <c r="D201" s="98"/>
+      <c r="B201" s="20">
+        <v>3</v>
+      </c>
+      <c r="C201" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D201" s="98" t="s">
+        <v>260</v>
+      </c>
       <c r="E201" s="98"/>
       <c r="F201" s="98"/>
-      <c r="G201" s="40"/>
+      <c r="G201" s="40">
+        <v>5500</v>
+      </c>
       <c r="H201" s="98"/>
     </row>
     <row r="202" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="98"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="98"/>
-      <c r="D202" s="98"/>
-      <c r="E202" s="98"/>
+      <c r="B202" s="20">
+        <v>7</v>
+      </c>
+      <c r="C202" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D202" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E202" s="98" t="s">
+        <v>802</v>
+      </c>
       <c r="F202" s="98"/>
-      <c r="G202" s="40"/>
+      <c r="G202" s="40">
+        <v>6000</v>
+      </c>
       <c r="H202" s="98"/>
     </row>
     <row r="203" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="98"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="98"/>
-      <c r="D203" s="98"/>
+      <c r="B203" s="20">
+        <v>6</v>
+      </c>
+      <c r="C203" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D203" s="98" t="s">
+        <v>304</v>
+      </c>
       <c r="E203" s="98"/>
       <c r="F203" s="98"/>
-      <c r="G203" s="40"/>
+      <c r="G203" s="40">
+        <v>9000</v>
+      </c>
       <c r="H203" s="98"/>
     </row>
     <row r="204" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="98"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="98"/>
-      <c r="D204" s="98"/>
+      <c r="B204" s="20">
+        <v>2</v>
+      </c>
+      <c r="C204" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D204" s="98" t="s">
+        <v>1040</v>
+      </c>
       <c r="E204" s="98"/>
       <c r="F204" s="98"/>
-      <c r="G204" s="40"/>
+      <c r="G204" s="40">
+        <v>2800</v>
+      </c>
       <c r="H204" s="98"/>
     </row>
     <row r="205" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="98"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="98"/>
-      <c r="D205" s="98"/>
+      <c r="B205" s="20">
+        <v>4</v>
+      </c>
+      <c r="C205" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D205" s="98" t="s">
+        <v>479</v>
+      </c>
       <c r="E205" s="98"/>
       <c r="F205" s="98"/>
-      <c r="G205" s="40"/>
+      <c r="G205" s="40">
+        <v>38000</v>
+      </c>
       <c r="H205" s="98"/>
     </row>
     <row r="206" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="98"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="98"/>
-      <c r="D206" s="98"/>
-      <c r="E206" s="98"/>
+      <c r="B206" s="20">
+        <v>8</v>
+      </c>
+      <c r="C206" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D206" s="98" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E206" s="98" t="s">
+        <v>357</v>
+      </c>
       <c r="F206" s="98"/>
-      <c r="G206" s="40"/>
+      <c r="G206" s="40">
+        <v>580000</v>
+      </c>
       <c r="H206" s="98"/>
     </row>
     <row r="207" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="98"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="98"/>
-      <c r="D207" s="98"/>
+      <c r="B207" s="20">
+        <v>3</v>
+      </c>
+      <c r="C207" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D207" s="98" t="s">
+        <v>1042</v>
+      </c>
       <c r="E207" s="98"/>
       <c r="F207" s="98"/>
-      <c r="G207" s="40"/>
+      <c r="G207" s="40">
+        <v>3000</v>
+      </c>
       <c r="H207" s="98"/>
     </row>
     <row r="208" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="98"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="98"/>
-      <c r="D208" s="98"/>
+      <c r="B208" s="20">
+        <v>6</v>
+      </c>
+      <c r="C208" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D208" s="98" t="s">
+        <v>1043</v>
+      </c>
       <c r="E208" s="98"/>
       <c r="F208" s="98"/>
-      <c r="G208" s="40"/>
+      <c r="G208" s="40">
+        <v>28000</v>
+      </c>
       <c r="H208" s="98"/>
     </row>
-    <row r="209" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A209" s="98"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="98"/>
-      <c r="D209" s="98"/>
+      <c r="B209" s="20">
+        <v>6</v>
+      </c>
+      <c r="C209" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D209" s="98" t="s">
+        <v>387</v>
+      </c>
       <c r="E209" s="98"/>
       <c r="F209" s="98"/>
-      <c r="G209" s="40"/>
+      <c r="G209" s="109">
+        <v>27000</v>
+      </c>
       <c r="H209" s="98"/>
     </row>
-    <row r="210" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="98"/>
       <c r="B210" s="20"/>
       <c r="C210" s="98"/>
       <c r="D210" s="98"/>
       <c r="E210" s="98"/>
-      <c r="F210" s="98"/>
-      <c r="G210" s="40"/>
+      <c r="F210" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="G210" s="97">
+        <f>SUM(G184:G209)</f>
+        <v>773600</v>
+      </c>
       <c r="H210" s="98"/>
     </row>
-    <row r="211" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="98"/>
       <c r="B211" s="20"/>
       <c r="C211" s="98"/>
       <c r="D211" s="98"/>
       <c r="E211" s="98"/>
-      <c r="F211" s="98"/>
-      <c r="G211" s="40"/>
+      <c r="F211" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G211" s="97">
+        <v>173850</v>
+      </c>
       <c r="H211" s="98"/>
     </row>
-    <row r="212" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="98"/>
       <c r="B212" s="20"/>
       <c r="C212" s="98"/>
       <c r="D212" s="98"/>
       <c r="E212" s="98"/>
-      <c r="F212" s="98"/>
-      <c r="G212" s="40"/>
+      <c r="F212" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="G212" s="97">
+        <v>10000</v>
+      </c>
       <c r="H212" s="98"/>
     </row>
-    <row r="213" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A213" s="98"/>
       <c r="B213" s="20"/>
       <c r="C213" s="98"/>
       <c r="D213" s="98"/>
       <c r="E213" s="98"/>
-      <c r="F213" s="98"/>
-      <c r="G213" s="40"/>
+      <c r="F213" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G213" s="107">
+        <v>130000</v>
+      </c>
       <c r="H213" s="98"/>
     </row>
-    <row r="214" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="98"/>
       <c r="B214" s="20"/>
       <c r="C214" s="98"/>
       <c r="D214" s="98"/>
       <c r="E214" s="98"/>
       <c r="F214" s="98"/>
-      <c r="G214" s="40"/>
+      <c r="G214" s="108">
+        <f>SUM(G210:G213)</f>
+        <v>1087450</v>
+      </c>
       <c r="H214" s="98"/>
     </row>
-    <row r="215" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="98"/>
       <c r="B215" s="20"/>
       <c r="C215" s="98"/>
       <c r="D215" s="98"/>
       <c r="E215" s="98"/>
-      <c r="F215" s="98"/>
-      <c r="G215" s="40"/>
+      <c r="F215" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G215" s="97">
+        <v>250500</v>
+      </c>
       <c r="H215" s="98"/>
-    </row>
-    <row r="216" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J215" s="123" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K215" s="123"/>
+      <c r="L215" s="123"/>
+    </row>
+    <row r="216" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A216" s="98"/>
       <c r="B216" s="20"/>
       <c r="C216" s="98"/>
       <c r="D216" s="98"/>
       <c r="E216" s="98"/>
-      <c r="F216" s="98"/>
-      <c r="G216" s="40"/>
+      <c r="F216" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="G216" s="107">
+        <v>1012000</v>
+      </c>
       <c r="H216" s="98"/>
     </row>
-    <row r="217" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="98"/>
       <c r="B217" s="20"/>
       <c r="C217" s="98"/>
       <c r="D217" s="98"/>
       <c r="E217" s="98"/>
       <c r="F217" s="98"/>
-      <c r="G217" s="40"/>
+      <c r="G217" s="97">
+        <f>SUM(G215:G216)</f>
+        <v>1262500</v>
+      </c>
       <c r="H217" s="98"/>
     </row>
-    <row r="218" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A218" s="98"/>
       <c r="B218" s="20"/>
       <c r="C218" s="98"/>
       <c r="D218" s="98"/>
       <c r="E218" s="98"/>
       <c r="F218" s="98"/>
-      <c r="G218" s="40"/>
+      <c r="G218" s="111">
+        <v>1087450</v>
+      </c>
       <c r="H218" s="98"/>
     </row>
-    <row r="219" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="98"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="98"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="98"/>
-      <c r="G219" s="40"/>
-      <c r="H219" s="98"/>
-    </row>
-    <row r="220" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="98"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="98"/>
-      <c r="D220" s="98"/>
-      <c r="E220" s="98"/>
-      <c r="F220" s="98"/>
-      <c r="G220" s="40"/>
-      <c r="H220" s="98"/>
-    </row>
-    <row r="221" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A219" s="115"/>
+      <c r="B219" s="116"/>
+      <c r="C219" s="115"/>
+      <c r="D219" s="115"/>
+      <c r="E219" s="115"/>
+      <c r="F219" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="G219" s="117">
+        <f>G217-G218</f>
+        <v>175050</v>
+      </c>
+      <c r="H219" s="115"/>
+    </row>
+    <row r="220" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="112" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B220" s="113">
+        <v>2</v>
+      </c>
+      <c r="C220" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="D220" s="112" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E220" s="112" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F220" s="112"/>
+      <c r="G220" s="114">
+        <v>150000</v>
+      </c>
+      <c r="H220" s="112"/>
+    </row>
+    <row r="221" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="98"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="98"/>
-      <c r="D221" s="98"/>
+      <c r="B221" s="20">
+        <v>2</v>
+      </c>
+      <c r="C221" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D221" s="98" t="s">
+        <v>1046</v>
+      </c>
       <c r="E221" s="98"/>
       <c r="F221" s="98"/>
-      <c r="G221" s="40"/>
+      <c r="G221" s="40">
+        <v>1000</v>
+      </c>
       <c r="H221" s="98"/>
     </row>
-    <row r="222" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="98"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="98"/>
-      <c r="D222" s="98"/>
+      <c r="B222" s="20">
+        <v>5</v>
+      </c>
+      <c r="C222" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="D222" s="98" t="s">
+        <v>640</v>
+      </c>
       <c r="E222" s="98"/>
       <c r="F222" s="98"/>
-      <c r="G222" s="40"/>
+      <c r="G222" s="40">
+        <v>6000</v>
+      </c>
       <c r="H222" s="98"/>
     </row>
-    <row r="223" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="98"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="98"/>
-      <c r="D223" s="98"/>
+      <c r="B223" s="20">
+        <v>1</v>
+      </c>
+      <c r="C223" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D223" s="98" t="s">
+        <v>1047</v>
+      </c>
       <c r="E223" s="98"/>
       <c r="F223" s="98"/>
-      <c r="G223" s="40"/>
+      <c r="G223" s="40">
+        <v>200</v>
+      </c>
       <c r="H223" s="98"/>
     </row>
-    <row r="224" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="98"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="98"/>
-      <c r="D224" s="98"/>
+      <c r="B224" s="20">
+        <v>2</v>
+      </c>
+      <c r="C224" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D224" s="98" t="s">
+        <v>1048</v>
+      </c>
       <c r="E224" s="98"/>
       <c r="F224" s="98"/>
-      <c r="G224" s="40"/>
+      <c r="G224" s="40">
+        <v>11000</v>
+      </c>
       <c r="H224" s="98"/>
     </row>
     <row r="225" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="98"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="98"/>
-      <c r="D225" s="98"/>
-      <c r="E225" s="98"/>
+      <c r="B225" s="20">
+        <v>2</v>
+      </c>
+      <c r="C225" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D225" s="98" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E225" s="98" t="s">
+        <v>271</v>
+      </c>
       <c r="F225" s="98"/>
-      <c r="G225" s="40"/>
+      <c r="G225" s="40">
+        <v>3000</v>
+      </c>
       <c r="H225" s="98"/>
     </row>
     <row r="226" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="98"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="98"/>
-      <c r="D226" s="98"/>
-      <c r="E226" s="98"/>
+      <c r="B226" s="20">
+        <v>2</v>
+      </c>
+      <c r="C226" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D226" s="98" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E226" s="98" t="s">
+        <v>1032</v>
+      </c>
       <c r="F226" s="98"/>
-      <c r="G226" s="40"/>
+      <c r="G226" s="40">
+        <v>33000</v>
+      </c>
       <c r="H226" s="98"/>
     </row>
     <row r="227" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="98"/>
-      <c r="B227" s="20"/>
-      <c r="C227" s="98"/>
-      <c r="D227" s="98"/>
+      <c r="B227" s="20">
+        <v>2</v>
+      </c>
+      <c r="C227" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D227" s="98" t="s">
+        <v>1090</v>
+      </c>
       <c r="E227" s="98"/>
       <c r="F227" s="98"/>
-      <c r="G227" s="40"/>
+      <c r="G227" s="40">
+        <v>12000</v>
+      </c>
       <c r="H227" s="98"/>
     </row>
     <row r="228" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="98"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="98"/>
-      <c r="D228" s="98"/>
-      <c r="E228" s="98"/>
+      <c r="B228" s="20">
+        <v>1</v>
+      </c>
+      <c r="C228" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D228" s="98" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E228" s="98" t="s">
+        <v>1058</v>
+      </c>
       <c r="F228" s="98"/>
-      <c r="G228" s="40"/>
+      <c r="G228" s="40">
+        <v>14000</v>
+      </c>
       <c r="H228" s="98"/>
     </row>
     <row r="229" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="98"/>
-      <c r="B229" s="20"/>
-      <c r="C229" s="98"/>
-      <c r="D229" s="98"/>
-      <c r="E229" s="98"/>
+      <c r="B229" s="20">
+        <v>2</v>
+      </c>
+      <c r="C229" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D229" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="E229" s="98" t="s">
+        <v>1060</v>
+      </c>
       <c r="F229" s="98"/>
-      <c r="G229" s="40"/>
+      <c r="G229" s="40">
+        <v>7000</v>
+      </c>
       <c r="H229" s="98"/>
     </row>
     <row r="230" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="98"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="98"/>
-      <c r="D230" s="98"/>
-      <c r="E230" s="98"/>
+      <c r="B230" s="20">
+        <v>8</v>
+      </c>
+      <c r="C230" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D230" s="98" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E230" s="98" t="s">
+        <v>996</v>
+      </c>
       <c r="F230" s="98"/>
-      <c r="G230" s="40"/>
+      <c r="G230" s="40">
+        <v>300000</v>
+      </c>
       <c r="H230" s="98"/>
     </row>
     <row r="231" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="98"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="98"/>
-      <c r="D231" s="98"/>
+      <c r="B231" s="20">
+        <v>6</v>
+      </c>
+      <c r="C231" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D231" s="98" t="s">
+        <v>1052</v>
+      </c>
       <c r="E231" s="98"/>
       <c r="F231" s="98"/>
-      <c r="G231" s="40"/>
+      <c r="G231" s="40">
+        <v>10150</v>
+      </c>
       <c r="H231" s="98"/>
     </row>
     <row r="232" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="98"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="98"/>
-      <c r="D232" s="98"/>
-      <c r="E232" s="98"/>
+      <c r="B232" s="20">
+        <v>3</v>
+      </c>
+      <c r="C232" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D232" s="98" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E232" s="98" t="s">
+        <v>1095</v>
+      </c>
       <c r="F232" s="98"/>
-      <c r="G232" s="40"/>
+      <c r="G232" s="40">
+        <v>32500</v>
+      </c>
       <c r="H232" s="98"/>
     </row>
     <row r="233" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="98"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="98"/>
-      <c r="D233" s="98"/>
+      <c r="B233" s="20">
+        <v>5</v>
+      </c>
+      <c r="C233" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D233" s="98" t="s">
+        <v>1092</v>
+      </c>
       <c r="E233" s="98"/>
       <c r="F233" s="98"/>
-      <c r="G233" s="40"/>
+      <c r="G233" s="40">
+        <v>4000</v>
+      </c>
       <c r="H233" s="98"/>
     </row>
     <row r="234" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="98"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="98"/>
-      <c r="D234" s="98"/>
+      <c r="B234" s="20">
+        <v>2</v>
+      </c>
+      <c r="C234" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D234" s="98" t="s">
+        <v>108</v>
+      </c>
       <c r="E234" s="98"/>
       <c r="F234" s="98"/>
-      <c r="G234" s="40"/>
+      <c r="G234" s="40">
+        <v>500</v>
+      </c>
       <c r="H234" s="98"/>
     </row>
     <row r="235" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="98"/>
-      <c r="B235" s="20"/>
-      <c r="C235" s="98"/>
-      <c r="D235" s="98"/>
+      <c r="B235" s="20">
+        <v>6</v>
+      </c>
+      <c r="C235" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D235" s="98" t="s">
+        <v>1054</v>
+      </c>
       <c r="E235" s="98"/>
       <c r="F235" s="98"/>
-      <c r="G235" s="40"/>
+      <c r="G235" s="40">
+        <v>27000</v>
+      </c>
       <c r="H235" s="98"/>
     </row>
     <row r="236" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="98"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="98"/>
-      <c r="D236" s="98"/>
+      <c r="B236" s="20">
+        <v>4</v>
+      </c>
+      <c r="C236" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D236" s="98" t="s">
+        <v>424</v>
+      </c>
       <c r="E236" s="98"/>
       <c r="F236" s="98"/>
-      <c r="G236" s="40"/>
+      <c r="G236" s="40">
+        <v>25000</v>
+      </c>
       <c r="H236" s="98"/>
     </row>
     <row r="237" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="98"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="98"/>
-      <c r="D237" s="98"/>
-      <c r="E237" s="98"/>
+      <c r="B237" s="20">
+        <v>1</v>
+      </c>
+      <c r="C237" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D237" s="98" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E237" s="98" t="s">
+        <v>1096</v>
+      </c>
       <c r="F237" s="98"/>
-      <c r="G237" s="40"/>
+      <c r="G237" s="40">
+        <v>500000</v>
+      </c>
       <c r="H237" s="98"/>
     </row>
     <row r="238" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="98"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="98"/>
-      <c r="D238" s="98"/>
+      <c r="B238" s="20">
+        <v>8</v>
+      </c>
+      <c r="C238" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D238" s="98" t="s">
+        <v>1093</v>
+      </c>
       <c r="E238" s="98"/>
       <c r="F238" s="98"/>
-      <c r="G238" s="40"/>
+      <c r="G238" s="40">
+        <v>80000</v>
+      </c>
       <c r="H238" s="98"/>
     </row>
-    <row r="239" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A239" s="98"/>
-      <c r="B239" s="20"/>
-      <c r="C239" s="98"/>
-      <c r="D239" s="98"/>
-      <c r="E239" s="98"/>
+      <c r="B239" s="20">
+        <v>8</v>
+      </c>
+      <c r="C239" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D239" s="98" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E239" s="98" t="s">
+        <v>1094</v>
+      </c>
       <c r="F239" s="98"/>
-      <c r="G239" s="40"/>
+      <c r="G239" s="109">
+        <v>300000</v>
+      </c>
       <c r="H239" s="98"/>
     </row>
     <row r="240" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="98"/>
       <c r="B240" s="20"/>
       <c r="C240" s="98"/>
-      <c r="D240" s="98"/>
+      <c r="D240" s="98" t="s">
+        <v>1057</v>
+      </c>
       <c r="E240" s="98"/>
-      <c r="F240" s="98"/>
-      <c r="G240" s="40"/>
+      <c r="F240" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="G240" s="122">
+        <f>SUM(G220:G239)</f>
+        <v>1516350</v>
+      </c>
       <c r="H240" s="98"/>
     </row>
     <row r="241" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33326,8 +34646,12 @@
       <c r="C241" s="98"/>
       <c r="D241" s="98"/>
       <c r="E241" s="98"/>
-      <c r="F241" s="98"/>
-      <c r="G241" s="40"/>
+      <c r="F241" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G241" s="40">
+        <v>116500</v>
+      </c>
       <c r="H241" s="98"/>
     </row>
     <row r="242" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33336,18 +34660,26 @@
       <c r="C242" s="98"/>
       <c r="D242" s="98"/>
       <c r="E242" s="98"/>
-      <c r="F242" s="98"/>
-      <c r="G242" s="40"/>
+      <c r="F242" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="G242" s="40">
+        <v>26000</v>
+      </c>
       <c r="H242" s="98"/>
     </row>
-    <row r="243" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A243" s="98"/>
       <c r="B243" s="20"/>
       <c r="C243" s="98"/>
       <c r="D243" s="98"/>
       <c r="E243" s="98"/>
-      <c r="F243" s="98"/>
-      <c r="G243" s="40"/>
+      <c r="F243" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G243" s="109">
+        <v>6200</v>
+      </c>
       <c r="H243" s="98"/>
     </row>
     <row r="244" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33357,247 +34689,451 @@
       <c r="D244" s="98"/>
       <c r="E244" s="98"/>
       <c r="F244" s="98"/>
-      <c r="G244" s="40"/>
+      <c r="G244" s="122">
+        <f>SUM(G240:G243)</f>
+        <v>1665050</v>
+      </c>
       <c r="H244" s="98"/>
     </row>
-    <row r="245" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A245" s="98"/>
       <c r="B245" s="20"/>
       <c r="C245" s="98"/>
       <c r="D245" s="98"/>
       <c r="E245" s="98"/>
-      <c r="F245" s="98"/>
-      <c r="G245" s="40"/>
+      <c r="F245" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="G245" s="109">
+        <v>1368700</v>
+      </c>
       <c r="H245" s="98"/>
     </row>
-    <row r="246" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" s="98"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="98"/>
-      <c r="D246" s="98"/>
-      <c r="E246" s="98"/>
-      <c r="F246" s="98"/>
-      <c r="G246" s="40"/>
-      <c r="H246" s="98"/>
+    <row r="246" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A246" s="115"/>
+      <c r="B246" s="116"/>
+      <c r="C246" s="115"/>
+      <c r="D246" s="115"/>
+      <c r="E246" s="115"/>
+      <c r="F246" s="115"/>
+      <c r="G246" s="124">
+        <f>G245-G244</f>
+        <v>-296350</v>
+      </c>
+      <c r="H246" s="115"/>
     </row>
     <row r="247" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" s="98"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="98"/>
-      <c r="D247" s="98"/>
-      <c r="E247" s="98"/>
-      <c r="F247" s="98"/>
-      <c r="G247" s="40"/>
-      <c r="H247" s="98"/>
+      <c r="A247" s="112" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B247" s="113">
+        <v>1</v>
+      </c>
+      <c r="C247" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D247" s="112" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E247" s="112"/>
+      <c r="F247" s="112"/>
+      <c r="G247" s="114">
+        <v>21000</v>
+      </c>
+      <c r="H247" s="112"/>
     </row>
     <row r="248" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="98"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="98"/>
-      <c r="D248" s="98"/>
+      <c r="B248" s="20">
+        <v>1</v>
+      </c>
+      <c r="C248" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D248" s="98" t="s">
+        <v>1063</v>
+      </c>
       <c r="E248" s="98"/>
       <c r="F248" s="98"/>
-      <c r="G248" s="40"/>
+      <c r="G248" s="40">
+        <v>10000</v>
+      </c>
       <c r="H248" s="98"/>
     </row>
     <row r="249" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="98"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="98"/>
-      <c r="D249" s="98"/>
+      <c r="B249" s="20">
+        <v>1</v>
+      </c>
+      <c r="C249" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D249" s="98" t="s">
+        <v>1097</v>
+      </c>
       <c r="E249" s="98"/>
       <c r="F249" s="98"/>
-      <c r="G249" s="40"/>
+      <c r="G249" s="40">
+        <v>2000</v>
+      </c>
       <c r="H249" s="98"/>
     </row>
     <row r="250" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="98"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="98"/>
-      <c r="D250" s="98"/>
+      <c r="B250" s="20">
+        <v>1</v>
+      </c>
+      <c r="C250" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D250" s="98" t="s">
+        <v>1064</v>
+      </c>
       <c r="E250" s="98"/>
       <c r="F250" s="98"/>
-      <c r="G250" s="40"/>
+      <c r="G250" s="40">
+        <v>1200</v>
+      </c>
       <c r="H250" s="98"/>
     </row>
     <row r="251" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="98"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="98"/>
-      <c r="D251" s="98"/>
-      <c r="E251" s="98"/>
+      <c r="B251" s="20">
+        <v>2</v>
+      </c>
+      <c r="C251" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D251" s="98" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E251" s="98" t="s">
+        <v>1106</v>
+      </c>
       <c r="F251" s="98"/>
-      <c r="G251" s="40"/>
+      <c r="G251" s="40">
+        <v>5000</v>
+      </c>
       <c r="H251" s="98"/>
     </row>
     <row r="252" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="98"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="98"/>
+      <c r="B252" s="20">
+        <v>4</v>
+      </c>
+      <c r="C252" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D252" s="98" t="s">
+        <v>1065</v>
+      </c>
       <c r="E252" s="98"/>
       <c r="F252" s="98"/>
-      <c r="G252" s="40"/>
+      <c r="G252" s="40">
+        <v>13000</v>
+      </c>
       <c r="H252" s="98"/>
     </row>
     <row r="253" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="98"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="98"/>
-      <c r="D253" s="98"/>
+      <c r="B253" s="20">
+        <v>8</v>
+      </c>
+      <c r="C253" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D253" s="98" t="s">
+        <v>1098</v>
+      </c>
       <c r="E253" s="98"/>
       <c r="F253" s="98"/>
-      <c r="G253" s="40"/>
+      <c r="G253" s="40">
+        <v>1000</v>
+      </c>
       <c r="H253" s="98"/>
     </row>
     <row r="254" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="98"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="98"/>
-      <c r="D254" s="98"/>
+      <c r="B254" s="20">
+        <v>2</v>
+      </c>
+      <c r="C254" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D254" s="98" t="s">
+        <v>1066</v>
+      </c>
       <c r="E254" s="98"/>
       <c r="F254" s="98"/>
-      <c r="G254" s="40"/>
+      <c r="G254" s="40">
+        <v>2500</v>
+      </c>
       <c r="H254" s="98"/>
     </row>
     <row r="255" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="98"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="98"/>
-      <c r="D255" s="98"/>
-      <c r="E255" s="98"/>
+      <c r="B255" s="20">
+        <v>2</v>
+      </c>
+      <c r="C255" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D255" s="98" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E255" s="98" t="s">
+        <v>1099</v>
+      </c>
       <c r="F255" s="98"/>
-      <c r="G255" s="40"/>
+      <c r="G255" s="40">
+        <v>15000</v>
+      </c>
       <c r="H255" s="98"/>
     </row>
     <row r="256" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="98"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="98"/>
-      <c r="D256" s="98"/>
-      <c r="E256" s="98"/>
+      <c r="B256" s="20">
+        <v>2</v>
+      </c>
+      <c r="C256" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D256" s="98" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E256" s="98" t="s">
+        <v>1099</v>
+      </c>
       <c r="F256" s="98"/>
-      <c r="G256" s="40"/>
+      <c r="G256" s="40">
+        <v>32000</v>
+      </c>
       <c r="H256" s="98"/>
     </row>
     <row r="257" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="98"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="98"/>
-      <c r="D257" s="98"/>
-      <c r="E257" s="98"/>
+      <c r="B257" s="20">
+        <v>2</v>
+      </c>
+      <c r="C257" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D257" s="98" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E257" s="98" t="s">
+        <v>1100</v>
+      </c>
       <c r="F257" s="98"/>
-      <c r="G257" s="40"/>
+      <c r="G257" s="40">
+        <v>10000</v>
+      </c>
       <c r="H257" s="98"/>
     </row>
     <row r="258" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="98"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="98"/>
-      <c r="D258" s="98"/>
+      <c r="B258" s="20">
+        <v>3</v>
+      </c>
+      <c r="C258" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D258" s="98" t="s">
+        <v>1070</v>
+      </c>
       <c r="E258" s="98"/>
       <c r="F258" s="98"/>
-      <c r="G258" s="40"/>
+      <c r="G258" s="40">
+        <v>4000</v>
+      </c>
       <c r="H258" s="98"/>
     </row>
     <row r="259" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="98"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="98"/>
-      <c r="D259" s="98"/>
-      <c r="E259" s="98"/>
+      <c r="B259" s="20">
+        <v>2</v>
+      </c>
+      <c r="C259" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D259" s="98" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E259" s="98" t="s">
+        <v>1101</v>
+      </c>
       <c r="F259" s="98"/>
-      <c r="G259" s="40"/>
+      <c r="G259" s="40">
+        <v>15000</v>
+      </c>
       <c r="H259" s="98"/>
     </row>
     <row r="260" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="98"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="98"/>
-      <c r="D260" s="98"/>
-      <c r="E260" s="98"/>
+      <c r="B260" s="20">
+        <v>2</v>
+      </c>
+      <c r="C260" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D260" s="98" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E260" s="125" t="s">
+        <v>1102</v>
+      </c>
       <c r="F260" s="98"/>
-      <c r="G260" s="40"/>
+      <c r="G260" s="40">
+        <v>27000</v>
+      </c>
       <c r="H260" s="98"/>
     </row>
     <row r="261" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="98"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="98"/>
-      <c r="D261" s="98"/>
-      <c r="E261" s="98"/>
+      <c r="B261" s="20">
+        <v>2</v>
+      </c>
+      <c r="C261" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D261" s="98" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E261" s="98" t="s">
+        <v>1073</v>
+      </c>
       <c r="F261" s="98"/>
-      <c r="G261" s="40"/>
+      <c r="G261" s="40">
+        <v>34000</v>
+      </c>
       <c r="H261" s="98"/>
     </row>
     <row r="262" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="98"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="98"/>
-      <c r="D262" s="98"/>
-      <c r="E262" s="98"/>
+      <c r="B262" s="20">
+        <v>7</v>
+      </c>
+      <c r="C262" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D262" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E262" s="98" t="s">
+        <v>1100</v>
+      </c>
       <c r="F262" s="98"/>
-      <c r="G262" s="40"/>
+      <c r="G262" s="40">
+        <v>500</v>
+      </c>
       <c r="H262" s="98"/>
     </row>
     <row r="263" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="98"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="98"/>
-      <c r="D263" s="98"/>
+      <c r="B263" s="20">
+        <v>1</v>
+      </c>
+      <c r="C263" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D263" s="98" t="s">
+        <v>123</v>
+      </c>
       <c r="E263" s="98"/>
       <c r="F263" s="98"/>
-      <c r="G263" s="40"/>
+      <c r="G263" s="40">
+        <v>200</v>
+      </c>
       <c r="H263" s="98"/>
     </row>
     <row r="264" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="98"/>
-      <c r="B264" s="20"/>
-      <c r="C264" s="98"/>
-      <c r="D264" s="98"/>
+      <c r="B264" s="20">
+        <v>2</v>
+      </c>
+      <c r="C264" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D264" s="98" t="s">
+        <v>1104</v>
+      </c>
       <c r="E264" s="98"/>
       <c r="F264" s="98"/>
-      <c r="G264" s="40"/>
+      <c r="G264" s="40">
+        <v>600</v>
+      </c>
       <c r="H264" s="98"/>
     </row>
     <row r="265" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="98"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="98"/>
-      <c r="D265" s="98"/>
+      <c r="B265" s="20">
+        <v>1</v>
+      </c>
+      <c r="C265" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D265" s="98" t="s">
+        <v>1074</v>
+      </c>
       <c r="E265" s="98"/>
       <c r="F265" s="98"/>
-      <c r="G265" s="40"/>
+      <c r="G265" s="40">
+        <v>750</v>
+      </c>
       <c r="H265" s="98"/>
     </row>
     <row r="266" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="98"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="98"/>
-      <c r="D266" s="98"/>
+      <c r="B266" s="20">
+        <v>6</v>
+      </c>
+      <c r="C266" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D266" s="98" t="s">
+        <v>1075</v>
+      </c>
       <c r="E266" s="98"/>
       <c r="F266" s="98"/>
-      <c r="G266" s="40"/>
+      <c r="G266" s="40">
+        <v>2000</v>
+      </c>
       <c r="H266" s="98"/>
     </row>
     <row r="267" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="98"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="98"/>
-      <c r="D267" s="98"/>
+      <c r="B267" s="20">
+        <v>3</v>
+      </c>
+      <c r="C267" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D267" s="98" t="s">
+        <v>1076</v>
+      </c>
       <c r="E267" s="98"/>
       <c r="F267" s="98"/>
-      <c r="G267" s="40"/>
+      <c r="G267" s="40">
+        <v>3200</v>
+      </c>
       <c r="H267" s="98"/>
     </row>
-    <row r="268" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A268" s="98"/>
-      <c r="B268" s="20"/>
-      <c r="C268" s="98"/>
-      <c r="D268" s="98"/>
+      <c r="B268" s="20">
+        <v>6</v>
+      </c>
+      <c r="C268" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D268" s="98" t="s">
+        <v>1105</v>
+      </c>
       <c r="E268" s="98"/>
       <c r="F268" s="98"/>
-      <c r="G268" s="40"/>
+      <c r="G268" s="109">
+        <v>21000</v>
+      </c>
       <c r="H268" s="98"/>
     </row>
     <row r="269" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33606,8 +35142,13 @@
       <c r="C269" s="98"/>
       <c r="D269" s="98"/>
       <c r="E269" s="98"/>
-      <c r="F269" s="98"/>
-      <c r="G269" s="40"/>
+      <c r="F269" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="G269" s="122">
+        <f>SUM(G247:G268)</f>
+        <v>220950</v>
+      </c>
       <c r="H269" s="98"/>
     </row>
     <row r="270" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33616,18 +35157,26 @@
       <c r="C270" s="98"/>
       <c r="D270" s="98"/>
       <c r="E270" s="98"/>
-      <c r="F270" s="98"/>
-      <c r="G270" s="40"/>
+      <c r="F270" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G270" s="40">
+        <v>153000</v>
+      </c>
       <c r="H270" s="98"/>
     </row>
-    <row r="271" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A271" s="98"/>
       <c r="B271" s="20"/>
       <c r="C271" s="98"/>
       <c r="D271" s="98"/>
       <c r="E271" s="98"/>
-      <c r="F271" s="98"/>
-      <c r="G271" s="40"/>
+      <c r="F271" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G271" s="109">
+        <v>15000</v>
+      </c>
       <c r="H271" s="98"/>
     </row>
     <row r="272" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33637,237 +35186,383 @@
       <c r="D272" s="98"/>
       <c r="E272" s="98"/>
       <c r="F272" s="98"/>
-      <c r="G272" s="40"/>
+      <c r="G272" s="122">
+        <f>SUM(G269:G271)</f>
+        <v>388950</v>
+      </c>
       <c r="H272" s="98"/>
     </row>
-    <row r="273" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A273" s="98"/>
       <c r="B273" s="20"/>
       <c r="C273" s="98"/>
       <c r="D273" s="98"/>
       <c r="E273" s="98"/>
-      <c r="F273" s="98"/>
-      <c r="G273" s="40"/>
+      <c r="F273" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="G273" s="109">
+        <v>347500</v>
+      </c>
       <c r="H273" s="98"/>
     </row>
-    <row r="274" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274" s="98"/>
-      <c r="B274" s="20"/>
-      <c r="C274" s="98"/>
-      <c r="D274" s="98"/>
-      <c r="E274" s="98"/>
-      <c r="F274" s="98"/>
-      <c r="G274" s="40"/>
-      <c r="H274" s="98"/>
+    <row r="274" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A274" s="115"/>
+      <c r="B274" s="116"/>
+      <c r="C274" s="115"/>
+      <c r="D274" s="115"/>
+      <c r="E274" s="115"/>
+      <c r="F274" s="115"/>
+      <c r="G274" s="124">
+        <f>G273-G272</f>
+        <v>-41450</v>
+      </c>
+      <c r="H274" s="115"/>
     </row>
     <row r="275" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275" s="98"/>
-      <c r="B275" s="20"/>
-      <c r="C275" s="98"/>
-      <c r="D275" s="98"/>
+      <c r="A275" s="98" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B275" s="20">
+        <v>2</v>
+      </c>
+      <c r="C275" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D275" s="98" t="s">
+        <v>1111</v>
+      </c>
       <c r="E275" s="98"/>
       <c r="F275" s="98"/>
-      <c r="G275" s="40"/>
+      <c r="G275" s="40">
+        <v>6000</v>
+      </c>
       <c r="H275" s="98"/>
     </row>
     <row r="276" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="98"/>
-      <c r="B276" s="20"/>
-      <c r="C276" s="98"/>
-      <c r="D276" s="98"/>
+      <c r="B276" s="20">
+        <v>1</v>
+      </c>
+      <c r="C276" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D276" s="98" t="s">
+        <v>1107</v>
+      </c>
       <c r="E276" s="98"/>
       <c r="F276" s="98"/>
-      <c r="G276" s="40"/>
+      <c r="G276" s="40">
+        <v>3600</v>
+      </c>
       <c r="H276" s="98"/>
     </row>
     <row r="277" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="98"/>
-      <c r="B277" s="20"/>
-      <c r="C277" s="98"/>
-      <c r="D277" s="98"/>
+      <c r="B277" s="20">
+        <v>3</v>
+      </c>
+      <c r="C277" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D277" s="98" t="s">
+        <v>1110</v>
+      </c>
       <c r="E277" s="98"/>
       <c r="F277" s="98"/>
-      <c r="G277" s="40"/>
+      <c r="G277" s="40">
+        <v>5000</v>
+      </c>
       <c r="H277" s="98"/>
     </row>
     <row r="278" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="98"/>
-      <c r="B278" s="20"/>
-      <c r="C278" s="98"/>
-      <c r="D278" s="98"/>
-      <c r="E278" s="98"/>
+      <c r="B278" s="20">
+        <v>2</v>
+      </c>
+      <c r="C278" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D278" s="98" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E278" s="98" t="s">
+        <v>1013</v>
+      </c>
       <c r="F278" s="98"/>
-      <c r="G278" s="40"/>
+      <c r="G278" s="40">
+        <v>23000</v>
+      </c>
       <c r="H278" s="98"/>
     </row>
     <row r="279" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="98"/>
-      <c r="B279" s="20"/>
-      <c r="C279" s="98"/>
-      <c r="D279" s="98"/>
+      <c r="B279" s="20">
+        <v>3</v>
+      </c>
+      <c r="C279" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D279" s="98" t="s">
+        <v>1108</v>
+      </c>
       <c r="E279" s="98"/>
       <c r="F279" s="98"/>
-      <c r="G279" s="40"/>
+      <c r="G279" s="40">
+        <v>7400</v>
+      </c>
       <c r="H279" s="98"/>
     </row>
     <row r="280" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="98"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="98"/>
-      <c r="D280" s="98"/>
+      <c r="B280" s="20">
+        <v>5</v>
+      </c>
+      <c r="C280" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D280" s="98" t="s">
+        <v>1112</v>
+      </c>
       <c r="E280" s="98"/>
       <c r="F280" s="98"/>
-      <c r="G280" s="40"/>
+      <c r="G280" s="40">
+        <v>1000</v>
+      </c>
       <c r="H280" s="98"/>
     </row>
     <row r="281" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="98"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="98"/>
-      <c r="D281" s="98"/>
+      <c r="B281" s="20">
+        <v>3</v>
+      </c>
+      <c r="C281" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D281" s="98" t="s">
+        <v>1079</v>
+      </c>
       <c r="E281" s="98"/>
       <c r="F281" s="98"/>
-      <c r="G281" s="40"/>
+      <c r="G281" s="40">
+        <v>1000</v>
+      </c>
       <c r="H281" s="98"/>
     </row>
     <row r="282" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="98"/>
-      <c r="B282" s="20"/>
-      <c r="C282" s="98"/>
-      <c r="D282" s="98"/>
+      <c r="B282" s="20">
+        <v>1</v>
+      </c>
+      <c r="C282" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D282" s="98" t="s">
+        <v>1080</v>
+      </c>
       <c r="E282" s="98"/>
       <c r="F282" s="98"/>
-      <c r="G282" s="40"/>
+      <c r="G282" s="40">
+        <v>10300</v>
+      </c>
       <c r="H282" s="98"/>
     </row>
     <row r="283" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="98"/>
-      <c r="B283" s="20"/>
-      <c r="C283" s="98"/>
-      <c r="D283" s="98"/>
+      <c r="B283" s="20">
+        <v>5</v>
+      </c>
+      <c r="C283" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D283" s="98" t="s">
+        <v>358</v>
+      </c>
       <c r="E283" s="98"/>
       <c r="F283" s="98"/>
-      <c r="G283" s="40"/>
+      <c r="G283" s="40">
+        <v>3000</v>
+      </c>
       <c r="H283" s="98"/>
     </row>
     <row r="284" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="98"/>
-      <c r="B284" s="20"/>
-      <c r="C284" s="98"/>
-      <c r="D284" s="98"/>
-      <c r="E284" s="98"/>
+      <c r="B284" s="20">
+        <v>2</v>
+      </c>
+      <c r="C284" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D284" s="98" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E284" s="98" t="s">
+        <v>899</v>
+      </c>
       <c r="F284" s="98"/>
-      <c r="G284" s="40"/>
+      <c r="G284" s="40">
+        <v>18500</v>
+      </c>
       <c r="H284" s="98"/>
     </row>
     <row r="285" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="98"/>
-      <c r="B285" s="20"/>
-      <c r="C285" s="98"/>
-      <c r="D285" s="98"/>
-      <c r="E285" s="98"/>
+      <c r="B285" s="20">
+        <v>2</v>
+      </c>
+      <c r="C285" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D285" s="98" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E285" s="98" t="s">
+        <v>1114</v>
+      </c>
       <c r="F285" s="98"/>
-      <c r="G285" s="40"/>
+      <c r="G285" s="40">
+        <v>11000</v>
+      </c>
       <c r="H285" s="98"/>
     </row>
     <row r="286" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="98"/>
       <c r="B286" s="20"/>
       <c r="C286" s="98"/>
-      <c r="D286" s="98"/>
+      <c r="D286" s="98" t="s">
+        <v>1082</v>
+      </c>
       <c r="E286" s="98"/>
       <c r="F286" s="98"/>
-      <c r="G286" s="40"/>
+      <c r="G286" s="40">
+        <v>5000</v>
+      </c>
       <c r="H286" s="98"/>
     </row>
     <row r="287" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="98"/>
       <c r="B287" s="20"/>
       <c r="C287" s="98"/>
-      <c r="D287" s="98"/>
+      <c r="D287" s="98" t="s">
+        <v>645</v>
+      </c>
       <c r="E287" s="98"/>
       <c r="F287" s="98"/>
-      <c r="G287" s="40"/>
+      <c r="G287" s="40">
+        <v>46500</v>
+      </c>
       <c r="H287" s="98"/>
     </row>
     <row r="288" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="98"/>
       <c r="B288" s="20"/>
       <c r="C288" s="98"/>
-      <c r="D288" s="98"/>
+      <c r="D288" s="98" t="s">
+        <v>1083</v>
+      </c>
       <c r="E288" s="98"/>
       <c r="F288" s="98"/>
-      <c r="G288" s="40"/>
+      <c r="G288" s="40">
+        <v>1000</v>
+      </c>
       <c r="H288" s="98"/>
     </row>
     <row r="289" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="98"/>
       <c r="B289" s="20"/>
       <c r="C289" s="98"/>
-      <c r="D289" s="98"/>
+      <c r="D289" s="98" t="s">
+        <v>1084</v>
+      </c>
       <c r="E289" s="98"/>
       <c r="F289" s="98"/>
-      <c r="G289" s="40"/>
+      <c r="G289" s="40">
+        <v>9000</v>
+      </c>
       <c r="H289" s="98"/>
     </row>
     <row r="290" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="98"/>
       <c r="B290" s="20"/>
       <c r="C290" s="98"/>
-      <c r="D290" s="98"/>
+      <c r="D290" s="98" t="s">
+        <v>1085</v>
+      </c>
       <c r="E290" s="98"/>
       <c r="F290" s="98"/>
-      <c r="G290" s="40"/>
+      <c r="G290" s="40">
+        <v>10000</v>
+      </c>
       <c r="H290" s="98"/>
     </row>
     <row r="291" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="98"/>
       <c r="B291" s="20"/>
       <c r="C291" s="98"/>
-      <c r="D291" s="98"/>
+      <c r="D291" s="98" t="s">
+        <v>1086</v>
+      </c>
       <c r="E291" s="98"/>
       <c r="F291" s="98"/>
-      <c r="G291" s="40"/>
+      <c r="G291" s="40">
+        <v>23000</v>
+      </c>
       <c r="H291" s="98"/>
     </row>
     <row r="292" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="98"/>
       <c r="B292" s="20"/>
       <c r="C292" s="98"/>
-      <c r="D292" s="98"/>
+      <c r="D292" s="98" t="s">
+        <v>1087</v>
+      </c>
       <c r="E292" s="98"/>
       <c r="F292" s="98"/>
-      <c r="G292" s="40"/>
+      <c r="G292" s="40">
+        <v>24000</v>
+      </c>
       <c r="H292" s="98"/>
     </row>
     <row r="293" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="98"/>
       <c r="B293" s="20"/>
       <c r="C293" s="98"/>
-      <c r="D293" s="98"/>
+      <c r="D293" s="98" t="s">
+        <v>948</v>
+      </c>
       <c r="E293" s="98"/>
       <c r="F293" s="98"/>
-      <c r="G293" s="40"/>
+      <c r="G293" s="40">
+        <v>400</v>
+      </c>
       <c r="H293" s="98"/>
     </row>
     <row r="294" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="98"/>
       <c r="B294" s="20"/>
       <c r="C294" s="98"/>
-      <c r="D294" s="98"/>
+      <c r="D294" s="98" t="s">
+        <v>1088</v>
+      </c>
       <c r="E294" s="98"/>
       <c r="F294" s="98"/>
-      <c r="G294" s="40"/>
+      <c r="G294" s="40">
+        <v>6200</v>
+      </c>
       <c r="H294" s="98"/>
     </row>
     <row r="295" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="98"/>
       <c r="B295" s="20"/>
       <c r="C295" s="98"/>
-      <c r="D295" s="98"/>
+      <c r="D295" s="98" t="s">
+        <v>1089</v>
+      </c>
       <c r="E295" s="98"/>
       <c r="F295" s="98"/>
-      <c r="G295" s="40"/>
+      <c r="G295" s="40">
+        <v>2000</v>
+      </c>
       <c r="H295" s="98"/>
     </row>
     <row r="296" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -33877,7 +35572,10 @@
       <c r="D296" s="98"/>
       <c r="E296" s="98"/>
       <c r="F296" s="98"/>
-      <c r="G296" s="40"/>
+      <c r="G296" s="40">
+        <f>SUM(G275:G295)</f>
+        <v>216900</v>
+      </c>
       <c r="H296" s="98"/>
     </row>
     <row r="297" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/GB-3Expense (Autosaved) (Autosaved).xlsx
+++ b/GB-3Expense (Autosaved) (Autosaved).xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="1277">
   <si>
     <t>1.6.2018</t>
   </si>
@@ -3685,6 +3685,261 @@
   <si>
     <t>Car Paper Oil 7*1500</t>
   </si>
+  <si>
+    <t>15.9.2018</t>
+  </si>
+  <si>
+    <t>GB 2 ပစၥည္းလာပို့ Carry ခ</t>
+  </si>
+  <si>
+    <t>သဲကာ 4</t>
+  </si>
+  <si>
+    <t>ေမာင္းတိန္းဘြတ္</t>
+  </si>
+  <si>
+    <t>သံျဖတ္လွြ</t>
+  </si>
+  <si>
+    <t>NH-642 1Lb</t>
+  </si>
+  <si>
+    <t>ံသံျပား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">သဲကာ </t>
+  </si>
+  <si>
+    <t>ေရေဆး GB1</t>
+  </si>
+  <si>
+    <t>Gear Link Bush</t>
+  </si>
+  <si>
+    <t>စိန္ကတံုးကိုသြား Carry</t>
+  </si>
+  <si>
+    <t>6 PK</t>
+  </si>
+  <si>
+    <t>မ်ိုဳးျမင့္ဦး လစာျကိုထုတ္ေငြ</t>
+  </si>
+  <si>
+    <t>ေကာ္မဲ 5*2000</t>
+  </si>
+  <si>
+    <t>ညမုန့္</t>
+  </si>
+  <si>
+    <t>16.9.2018</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>AA-9190/Probox</t>
+  </si>
+  <si>
+    <t>6E-1608/Probox</t>
+  </si>
+  <si>
+    <t>CC-2093/CC-7530</t>
+  </si>
+  <si>
+    <t>6I-6568/Bongo Fuji</t>
+  </si>
+  <si>
+    <t>၀တုတ္ ျကိဳထုတ္ေငြ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16*17/18*19 ဂြင္း</t>
+  </si>
+  <si>
+    <t>Oil Filter</t>
+  </si>
+  <si>
+    <t>ဟြန္း GB</t>
+  </si>
+  <si>
+    <t>လိုင္ကာေဆး (ေဆး)</t>
+  </si>
+  <si>
+    <t>CRV ေဆးစပ္ 2lb</t>
+  </si>
+  <si>
+    <t>6PK-1590</t>
+  </si>
+  <si>
+    <t>၀တုုတ္ ကားျပင္ Carry</t>
+  </si>
+  <si>
+    <t>ပစၥည္း၀ယ္မရ Carry</t>
+  </si>
+  <si>
+    <t>ေဘာ္ဒီဆရာ</t>
+  </si>
+  <si>
+    <t>ထမင္းဖိုး 13*1500</t>
+  </si>
+  <si>
+    <t>17.9.2018</t>
+  </si>
+  <si>
+    <t>Tissue၊အစိမ္းဖတ္၊Cotton pad</t>
+  </si>
+  <si>
+    <t>သံခ်ြတ္၀ရိန္</t>
+  </si>
+  <si>
+    <t>ဘရိတ္ရွဴး</t>
+  </si>
+  <si>
+    <t>ဘြတ္ပတ္တာ</t>
+  </si>
+  <si>
+    <t>W-20( ေဆးေဘာ္ဒီ)</t>
+  </si>
+  <si>
+    <t>GB 2Carry</t>
+  </si>
+  <si>
+    <t>ေရသန့္ 2*400</t>
+  </si>
+  <si>
+    <t>မီးသီး/ေရတိုင္ဂီဂ်ီးေဆး</t>
+  </si>
+  <si>
+    <t>မိန္းလံုး Press နင္း</t>
+  </si>
+  <si>
+    <t>ဘရိိတ္ဆံု၀ယ္မရ Carry</t>
+  </si>
+  <si>
+    <t>Plug Coil 2</t>
+  </si>
+  <si>
+    <t>ပန္ကာျကိုး 2/Oil Seal</t>
+  </si>
+  <si>
+    <t>ထမင္းဖိုး 15*1500</t>
+  </si>
+  <si>
+    <t>18.9.2018</t>
+  </si>
+  <si>
+    <t>9G-1976/Dyna</t>
+  </si>
+  <si>
+    <t>1G-8256/Tiida</t>
+  </si>
+  <si>
+    <t>ကင္းပင္က်ိဳးထုတ္ျဖဳတ္တပ္လက္ခ</t>
+  </si>
+  <si>
+    <t>ဂ်ပန္ ခံေဆး (ေဆးေဘာ္ဒီ)</t>
+  </si>
+  <si>
+    <t>042 ခံေဆး ၊ပုလဲ (ေဆးေဘာ္ဒီ)</t>
+  </si>
+  <si>
+    <t>ေကာ္ဖီ၊သျကား</t>
+  </si>
+  <si>
+    <t>ေရွာ့ဘား 2</t>
+  </si>
+  <si>
+    <t>ကင္းပင္ 1 စံု</t>
+  </si>
+  <si>
+    <t>ပူလီျကိုး</t>
+  </si>
+  <si>
+    <t>ဒရမ္္သ 2</t>
+  </si>
+  <si>
+    <t>ဖင္းဂါးသ</t>
+  </si>
+  <si>
+    <t>တိုက္ေရာ့ 2</t>
+  </si>
+  <si>
+    <t>ေန့စားခ ေဘာ္ဒီ</t>
+  </si>
+  <si>
+    <t>ညဘက္မုန့္ဖိုး</t>
+  </si>
+  <si>
+    <t>Ve Ve</t>
+  </si>
+  <si>
+    <t>4J-9385/Probox</t>
+  </si>
+  <si>
+    <t>3M-1645/Porter 2</t>
+  </si>
+  <si>
+    <t>9G-1976</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Hiace/Ngwe Hnin</t>
+  </si>
+  <si>
+    <t>ကိ္ုေက်ာ္ကို BYN ျကိုထုတ္ေငြ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police </t>
+  </si>
+  <si>
+    <t>19.9.2018</t>
+  </si>
+  <si>
+    <t>စရံေပးေငြ</t>
+  </si>
+  <si>
+    <t>္Filter</t>
+  </si>
+  <si>
+    <t>အေပၚေဆး</t>
+  </si>
+  <si>
+    <t>ေဘာနက္တိုင္</t>
+  </si>
+  <si>
+    <t>ေရတိုင္ဂီဂ်ီးေဆး/အေပၚဖံုးလဲ</t>
+  </si>
+  <si>
+    <t>ေျကး၀ါရွာ၀ယ္မရ Carry</t>
+  </si>
+  <si>
+    <t>ဆပ္ျပာဆိ (အိမ္ဆိုင္)</t>
+  </si>
+  <si>
+    <t>3M-1645/KIA</t>
+  </si>
+  <si>
+    <t>5K-4338/Police</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>2I-5297</t>
+  </si>
+  <si>
+    <t>1G-2575/Honda Acty</t>
+  </si>
+  <si>
+    <t>20.9.2018</t>
+  </si>
+  <si>
+    <t>ကားသြားဆြဲ (ဆီျဖည့္)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆီျဖည့္ </t>
+  </si>
 </sst>
 </file>
 
@@ -3694,7 +3949,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3977,6 +4232,34 @@
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="10"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4099,7 +4382,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4365,6 +4648,18 @@
     <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -30399,10 +30694,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O316"/>
+  <dimension ref="A1:O467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="D414" sqref="D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -36966,6 +37261,12 @@
         <v>1000</v>
       </c>
       <c r="H286" s="98"/>
+      <c r="I286" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J286" s="108">
+        <v>216000</v>
+      </c>
     </row>
     <row r="287" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="112" t="s">
@@ -36987,10 +37288,10 @@
       </c>
       <c r="H287" s="98"/>
       <c r="I287" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="J287" s="108">
-        <v>216000</v>
+        <v>372</v>
+      </c>
+      <c r="J287" s="40">
+        <v>120500</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -37015,13 +37316,13 @@
       </c>
       <c r="H288" s="98"/>
       <c r="I288" s="98" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="J288" s="40">
-        <v>120500</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A289" s="112" t="s">
         <v>1143</v>
       </c>
@@ -37041,13 +37342,13 @@
       </c>
       <c r="H289" s="98"/>
       <c r="I289" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="J289" s="40">
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+        <v>373</v>
+      </c>
+      <c r="J289" s="109">
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="112" t="s">
         <v>1143</v>
       </c>
@@ -37066,14 +37367,13 @@
         <v>27000</v>
       </c>
       <c r="H290" s="98"/>
-      <c r="I290" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="J290" s="109">
-        <v>186000</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I290" s="98"/>
+      <c r="J290" s="108">
+        <f>SUM(J286:J289)</f>
+        <v>626500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A291" s="112" t="s">
         <v>1143</v>
       </c>
@@ -37092,13 +37392,14 @@
         <v>2000</v>
       </c>
       <c r="H291" s="98"/>
-      <c r="I291" s="98"/>
-      <c r="J291" s="108">
-        <f>SUM(J287:J290)</f>
-        <v>626500</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="I291" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="J291" s="107">
+        <v>704500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="112" t="s">
         <v>1143</v>
       </c>
@@ -37118,10 +37419,11 @@
       </c>
       <c r="H292" s="98"/>
       <c r="I292" s="98" t="s">
-        <v>374</v>
-      </c>
-      <c r="J292" s="107">
-        <v>704500</v>
+        <v>468</v>
+      </c>
+      <c r="J292" s="134">
+        <f>J291-J290</f>
+        <v>78000</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -37136,20 +37438,17 @@
         <v>216000</v>
       </c>
       <c r="H293" s="98"/>
-      <c r="I293" s="98" t="s">
-        <v>468</v>
-      </c>
-      <c r="J293" s="134">
-        <f>J292-J291</f>
-        <v>78000</v>
-      </c>
     </row>
     <row r="294" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B294" s="113"/>
-      <c r="C294" s="112"/>
+      <c r="B294" s="113">
+        <v>1</v>
+      </c>
+      <c r="C294" s="112" t="s">
+        <v>332</v>
+      </c>
       <c r="D294" s="112" t="s">
         <v>1180</v>
       </c>
@@ -37164,12 +37463,18 @@
       <c r="A295" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B295" s="20"/>
-      <c r="C295" s="98"/>
+      <c r="B295" s="20">
+        <v>2</v>
+      </c>
+      <c r="C295" s="98" t="s">
+        <v>337</v>
+      </c>
       <c r="D295" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="E295" s="98"/>
+      <c r="E295" s="98" t="s">
+        <v>558</v>
+      </c>
       <c r="F295" s="98"/>
       <c r="G295" s="132">
         <v>10000</v>
@@ -37180,12 +37485,18 @@
       <c r="A296" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="98"/>
+      <c r="B296" s="20">
+        <v>1</v>
+      </c>
+      <c r="C296" s="98" t="s">
+        <v>332</v>
+      </c>
       <c r="D296" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="E296" s="98"/>
+      <c r="E296" s="98" t="s">
+        <v>1011</v>
+      </c>
       <c r="F296" s="98"/>
       <c r="G296" s="132">
         <v>37500</v>
@@ -37196,8 +37507,12 @@
       <c r="A297" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B297" s="20"/>
-      <c r="C297" s="98"/>
+      <c r="B297" s="20">
+        <v>5</v>
+      </c>
+      <c r="C297" s="98" t="s">
+        <v>53</v>
+      </c>
       <c r="D297" s="98" t="s">
         <v>1181</v>
       </c>
@@ -37212,8 +37527,12 @@
       <c r="A298" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B298" s="20"/>
-      <c r="C298" s="98"/>
+      <c r="B298" s="20">
+        <v>8</v>
+      </c>
+      <c r="C298" s="98" t="s">
+        <v>491</v>
+      </c>
       <c r="D298" s="98" t="s">
         <v>1182</v>
       </c>
@@ -37228,12 +37547,18 @@
       <c r="A299" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B299" s="20"/>
-      <c r="C299" s="98"/>
+      <c r="B299" s="20">
+        <v>3</v>
+      </c>
+      <c r="C299" s="98" t="s">
+        <v>333</v>
+      </c>
       <c r="D299" s="98" t="s">
         <v>1183</v>
       </c>
-      <c r="E299" s="98"/>
+      <c r="E299" s="98" t="s">
+        <v>1257</v>
+      </c>
       <c r="F299" s="98"/>
       <c r="G299" s="132">
         <v>5500</v>
@@ -37244,12 +37569,18 @@
       <c r="A300" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B300" s="20"/>
-      <c r="C300" s="98"/>
+      <c r="B300" s="20">
+        <v>2</v>
+      </c>
+      <c r="C300" s="98" t="s">
+        <v>337</v>
+      </c>
       <c r="D300" s="98" t="s">
         <v>1184</v>
       </c>
-      <c r="E300" s="98"/>
+      <c r="E300" s="98" t="s">
+        <v>1258</v>
+      </c>
       <c r="F300" s="98"/>
       <c r="G300" s="132">
         <v>190000</v>
@@ -37260,8 +37591,12 @@
       <c r="A301" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B301" s="20"/>
-      <c r="C301" s="98"/>
+      <c r="B301" s="20">
+        <v>5</v>
+      </c>
+      <c r="C301" s="98" t="s">
+        <v>53</v>
+      </c>
       <c r="D301" s="98" t="s">
         <v>1185</v>
       </c>
@@ -37276,8 +37611,12 @@
       <c r="A302" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B302" s="20"/>
-      <c r="C302" s="98"/>
+      <c r="B302" s="20">
+        <v>2</v>
+      </c>
+      <c r="C302" s="98" t="s">
+        <v>337</v>
+      </c>
       <c r="D302" s="98" t="s">
         <v>1186</v>
       </c>
@@ -37292,8 +37631,12 @@
       <c r="A303" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B303" s="20"/>
-      <c r="C303" s="98"/>
+      <c r="B303" s="20">
+        <v>3</v>
+      </c>
+      <c r="C303" s="98" t="s">
+        <v>333</v>
+      </c>
       <c r="D303" s="98" t="s">
         <v>1187</v>
       </c>
@@ -37308,8 +37651,12 @@
       <c r="A304" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B304" s="20"/>
-      <c r="C304" s="98"/>
+      <c r="B304" s="20">
+        <v>1</v>
+      </c>
+      <c r="C304" s="98" t="s">
+        <v>332</v>
+      </c>
       <c r="D304" s="98" t="s">
         <v>1135</v>
       </c>
@@ -37319,13 +37666,23 @@
         <v>1200</v>
       </c>
       <c r="H304" s="98"/>
-    </row>
-    <row r="305" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I304" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J304" s="108">
+        <v>374400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B305" s="20"/>
-      <c r="C305" s="98"/>
+      <c r="B305" s="20">
+        <v>1</v>
+      </c>
+      <c r="C305" s="98" t="s">
+        <v>332</v>
+      </c>
       <c r="D305" s="98" t="s">
         <v>1188</v>
       </c>
@@ -37335,13 +37692,23 @@
         <v>4000</v>
       </c>
       <c r="H305" s="98"/>
-    </row>
-    <row r="306" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I305" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="J305" s="40">
+        <v>142850</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="98"/>
+      <c r="B306" s="20">
+        <v>4</v>
+      </c>
+      <c r="C306" s="98" t="s">
+        <v>334</v>
+      </c>
       <c r="D306" s="98" t="s">
         <v>1175</v>
       </c>
@@ -37351,13 +37718,23 @@
         <v>23000</v>
       </c>
       <c r="H306" s="98"/>
-    </row>
-    <row r="307" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I306" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="J306" s="40">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A307" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="98"/>
+      <c r="B307" s="20">
+        <v>6</v>
+      </c>
+      <c r="C307" s="98" t="s">
+        <v>335</v>
+      </c>
       <c r="D307" s="98" t="s">
         <v>1123</v>
       </c>
@@ -37367,13 +37744,21 @@
         <v>25500</v>
       </c>
       <c r="H307" s="98"/>
-    </row>
-    <row r="308" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I307" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="J307" s="109"/>
+    </row>
+    <row r="308" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="98"/>
+      <c r="B308" s="20">
+        <v>8</v>
+      </c>
+      <c r="C308" s="98" t="s">
+        <v>491</v>
+      </c>
       <c r="D308" s="98" t="s">
         <v>1189</v>
       </c>
@@ -37383,13 +37768,22 @@
         <v>41000</v>
       </c>
       <c r="H308" s="98"/>
-    </row>
-    <row r="309" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I308" s="98"/>
+      <c r="J308" s="108">
+        <f>SUM(J304:J307)</f>
+        <v>687250</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A309" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B309" s="20"/>
-      <c r="C309" s="98"/>
+      <c r="B309" s="20">
+        <v>2</v>
+      </c>
+      <c r="C309" s="98" t="s">
+        <v>337</v>
+      </c>
       <c r="D309" s="98" t="s">
         <v>1190</v>
       </c>
@@ -37399,13 +37793,23 @@
         <v>5000</v>
       </c>
       <c r="H309" s="98"/>
-    </row>
-    <row r="310" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I309" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="J309" s="107">
+        <v>661500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="112" t="s">
         <v>1179</v>
       </c>
-      <c r="B310" s="20"/>
-      <c r="C310" s="98"/>
+      <c r="B310" s="20">
+        <v>6</v>
+      </c>
+      <c r="C310" s="98" t="s">
+        <v>335</v>
+      </c>
       <c r="D310" s="98" t="s">
         <v>1086</v>
       </c>
@@ -37415,69 +37819,2749 @@
         <v>2000</v>
       </c>
       <c r="H310" s="98"/>
-    </row>
-    <row r="311" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I310" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="J310" s="126">
+        <f>J309-J308</f>
+        <v>-25750</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="98"/>
       <c r="B311" s="20"/>
       <c r="C311" s="98"/>
       <c r="D311" s="98"/>
       <c r="E311" s="98"/>
       <c r="F311" s="98"/>
-      <c r="G311" s="132">
+      <c r="G311" s="108">
         <f>SUBTOTAL(9,G294:G310)</f>
         <v>374400</v>
       </c>
       <c r="H311" s="98"/>
     </row>
-    <row r="312" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="98"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="98"/>
-      <c r="D312" s="98"/>
+    <row r="312" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B312" s="20">
+        <v>5</v>
+      </c>
+      <c r="C312" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D312" s="98" t="s">
+        <v>1193</v>
+      </c>
       <c r="E312" s="98"/>
       <c r="F312" s="98"/>
-      <c r="G312" s="132"/>
+      <c r="G312" s="132">
+        <v>1000</v>
+      </c>
       <c r="H312" s="98"/>
     </row>
-    <row r="313" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="98"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="98"/>
-      <c r="D313" s="98"/>
-      <c r="E313" s="98"/>
+    <row r="313" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B313" s="20">
+        <v>2</v>
+      </c>
+      <c r="C313" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D313" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E313" s="98" t="s">
+        <v>1208</v>
+      </c>
       <c r="F313" s="98"/>
-      <c r="G313" s="132"/>
+      <c r="G313" s="132">
+        <v>11000</v>
+      </c>
       <c r="H313" s="98"/>
     </row>
-    <row r="314" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" s="98"/>
-      <c r="B314" s="20"/>
-      <c r="C314" s="98"/>
-      <c r="D314" s="98"/>
-      <c r="E314" s="98"/>
+    <row r="314" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B314" s="20">
+        <v>2</v>
+      </c>
+      <c r="C314" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D314" s="98" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E314" s="98" t="s">
+        <v>357</v>
+      </c>
       <c r="F314" s="98"/>
-      <c r="G314" s="132"/>
+      <c r="G314" s="132">
+        <v>12000</v>
+      </c>
       <c r="H314" s="98"/>
     </row>
-    <row r="315" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="98"/>
-      <c r="B315" s="20"/>
-      <c r="C315" s="98"/>
-      <c r="D315" s="98"/>
+    <row r="315" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B315" s="20">
+        <v>5</v>
+      </c>
+      <c r="C315" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D315" s="98" t="s">
+        <v>358</v>
+      </c>
       <c r="E315" s="98"/>
       <c r="F315" s="98"/>
-      <c r="G315" s="132"/>
+      <c r="G315" s="132">
+        <v>12000</v>
+      </c>
       <c r="H315" s="98"/>
     </row>
-    <row r="316" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="98"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="98"/>
-      <c r="D316" s="98"/>
+    <row r="316" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B316" s="20">
+        <v>2</v>
+      </c>
+      <c r="C316" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D316" s="98" t="s">
+        <v>689</v>
+      </c>
       <c r="E316" s="98"/>
       <c r="F316" s="98"/>
-      <c r="G316" s="132"/>
+      <c r="G316" s="132">
+        <v>2000</v>
+      </c>
       <c r="H316" s="98"/>
+    </row>
+    <row r="317" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B317" s="20">
+        <v>2</v>
+      </c>
+      <c r="C317" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D317" s="98" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E317" s="98" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F317" s="98"/>
+      <c r="G317" s="132">
+        <v>9500</v>
+      </c>
+      <c r="H317" s="98"/>
+    </row>
+    <row r="318" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B318" s="20">
+        <v>3</v>
+      </c>
+      <c r="C318" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D318" s="98" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E318" s="98"/>
+      <c r="F318" s="98"/>
+      <c r="G318" s="132">
+        <v>4000</v>
+      </c>
+      <c r="H318" s="98"/>
+    </row>
+    <row r="319" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B319" s="20">
+        <v>3</v>
+      </c>
+      <c r="C319" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="D319" s="98" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E319" s="98"/>
+      <c r="F319" s="98"/>
+      <c r="G319" s="132">
+        <v>8000</v>
+      </c>
+      <c r="H319" s="98"/>
+    </row>
+    <row r="320" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B320" s="20">
+        <v>3</v>
+      </c>
+      <c r="C320" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D320" s="98" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E320" s="98" t="s">
+        <v>899</v>
+      </c>
+      <c r="F320" s="98"/>
+      <c r="G320" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H320" s="98"/>
+    </row>
+    <row r="321" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B321" s="20">
+        <v>2</v>
+      </c>
+      <c r="C321" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D321" s="98" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E321" s="123" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F321" s="98"/>
+      <c r="G321" s="132">
+        <v>4000</v>
+      </c>
+      <c r="H321" s="98"/>
+    </row>
+    <row r="322" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B322" s="20">
+        <v>3</v>
+      </c>
+      <c r="C322" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D322" s="98" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E322" s="98" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F322" s="98"/>
+      <c r="G322" s="132">
+        <v>3000</v>
+      </c>
+      <c r="H322" s="98"/>
+    </row>
+    <row r="323" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B323" s="20">
+        <v>1</v>
+      </c>
+      <c r="C323" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D323" s="98" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E323" s="98"/>
+      <c r="F323" s="98"/>
+      <c r="G323" s="132">
+        <v>1200</v>
+      </c>
+      <c r="H323" s="98"/>
+    </row>
+    <row r="324" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B324" s="20">
+        <v>2</v>
+      </c>
+      <c r="C324" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D324" s="98" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E324" s="98" t="s">
+        <v>830</v>
+      </c>
+      <c r="F324" s="98"/>
+      <c r="G324" s="132">
+        <v>2500</v>
+      </c>
+      <c r="H324" s="98"/>
+    </row>
+    <row r="325" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B325" s="20">
+        <v>5</v>
+      </c>
+      <c r="C325" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D325" s="98" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E325" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="F325" s="98"/>
+      <c r="G325" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H325" s="98"/>
+      <c r="I325" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J325" s="108">
+        <v>159700</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B326" s="20">
+        <v>2</v>
+      </c>
+      <c r="C326" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D326" s="98" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E326" s="98" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F326" s="98"/>
+      <c r="G326" s="132">
+        <v>7500</v>
+      </c>
+      <c r="H326" s="98"/>
+      <c r="I326" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="J326" s="40">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B327" s="20">
+        <v>8</v>
+      </c>
+      <c r="C327" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D327" s="98" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E327" s="98"/>
+      <c r="F327" s="98"/>
+      <c r="G327" s="132">
+        <v>20000</v>
+      </c>
+      <c r="H327" s="98"/>
+      <c r="I327" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="J327" s="40">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A328" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B328" s="20">
+        <v>2</v>
+      </c>
+      <c r="C328" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D328" s="98" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E328" s="98"/>
+      <c r="F328" s="98"/>
+      <c r="G328" s="132">
+        <v>10000</v>
+      </c>
+      <c r="H328" s="98"/>
+      <c r="I328" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="J328" s="142">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B329" s="20">
+        <v>4</v>
+      </c>
+      <c r="C329" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D329" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="E329" s="98"/>
+      <c r="F329" s="98"/>
+      <c r="G329" s="132">
+        <v>23000</v>
+      </c>
+      <c r="H329" s="98"/>
+      <c r="I329" s="98"/>
+      <c r="J329" s="120">
+        <f>SUM(J325:J328)</f>
+        <v>303200</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A330" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B330" s="20">
+        <v>6</v>
+      </c>
+      <c r="C330" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D330" s="98" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E330" s="98"/>
+      <c r="F330" s="98"/>
+      <c r="G330" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H330" s="98"/>
+      <c r="I330" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="J330" s="109">
+        <v>273500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B331" s="20">
+        <v>6</v>
+      </c>
+      <c r="C331" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D331" s="98" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E331" s="98"/>
+      <c r="F331" s="98"/>
+      <c r="G331" s="132">
+        <v>1500</v>
+      </c>
+      <c r="H331" s="98"/>
+      <c r="I331" s="98"/>
+      <c r="J331" s="108">
+        <f>J330-J329</f>
+        <v>-29700</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="13"/>
+      <c r="B332" s="135"/>
+      <c r="C332" s="136"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="108">
+        <f>SUM(G312:G331)</f>
+        <v>159700</v>
+      </c>
+      <c r="H332" s="13"/>
+    </row>
+    <row r="333" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B333" s="20">
+        <v>2</v>
+      </c>
+      <c r="C333" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D333" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="132">
+        <v>4000</v>
+      </c>
+      <c r="H333" s="13"/>
+    </row>
+    <row r="334" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B334" s="20">
+        <v>8</v>
+      </c>
+      <c r="C334" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D334" s="98" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="132">
+        <v>30000</v>
+      </c>
+      <c r="H334" s="13"/>
+    </row>
+    <row r="335" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B335" s="20">
+        <v>2</v>
+      </c>
+      <c r="C335" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D335" s="98" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="132">
+        <v>5000</v>
+      </c>
+      <c r="H335" s="13"/>
+    </row>
+    <row r="336" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B336" s="20">
+        <v>2</v>
+      </c>
+      <c r="C336" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D336" s="98" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="132">
+        <v>5500</v>
+      </c>
+      <c r="H336" s="13"/>
+    </row>
+    <row r="337" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B337" s="20">
+        <v>2</v>
+      </c>
+      <c r="C337" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D337" s="98" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="132">
+        <v>4000</v>
+      </c>
+      <c r="H337" s="13"/>
+    </row>
+    <row r="338" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B338" s="20">
+        <v>3</v>
+      </c>
+      <c r="C338" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D338" s="98" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="132">
+        <v>15500</v>
+      </c>
+      <c r="H338" s="13"/>
+      <c r="I338" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J338" s="108">
+        <v>143700</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B339" s="20">
+        <v>3</v>
+      </c>
+      <c r="C339" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D339" s="98" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="132">
+        <v>10000</v>
+      </c>
+      <c r="H339" s="13"/>
+      <c r="I339" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="J339" s="40">
+        <v>334200</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B340" s="20">
+        <v>2</v>
+      </c>
+      <c r="C340" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D340" s="98" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="132">
+        <v>10500</v>
+      </c>
+      <c r="H340" s="13"/>
+      <c r="I340" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="J340" s="40">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A341" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B341" s="20">
+        <v>1</v>
+      </c>
+      <c r="C341" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D341" s="98" t="s">
+        <v>984</v>
+      </c>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+      <c r="G341" s="132">
+        <v>1200</v>
+      </c>
+      <c r="H341" s="13"/>
+      <c r="I341" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="J341" s="109">
+        <v>190500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B342" s="20">
+        <v>5</v>
+      </c>
+      <c r="C342" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D342" s="98" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="132">
+        <v>2000</v>
+      </c>
+      <c r="H342" s="13"/>
+      <c r="I342" s="98"/>
+      <c r="J342" s="126">
+        <f>SUM(J338:J341)</f>
+        <v>705400</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B343" s="20">
+        <v>5</v>
+      </c>
+      <c r="C343" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D343" s="98" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="132">
+        <v>2000</v>
+      </c>
+      <c r="H343" s="13"/>
+      <c r="I343" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="J343" s="40">
+        <v>50000</v>
+      </c>
+      <c r="K343" s="12" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A344" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B344" s="20">
+        <v>8</v>
+      </c>
+      <c r="C344" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D344" s="98" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="132">
+        <v>20000</v>
+      </c>
+      <c r="H344" s="13"/>
+      <c r="I344" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="J344" s="109">
+        <v>1068000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B345" s="20">
+        <v>4</v>
+      </c>
+      <c r="C345" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D345" s="98" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="132">
+        <v>13000</v>
+      </c>
+      <c r="H345" s="13"/>
+      <c r="I345" s="98"/>
+      <c r="J345" s="40">
+        <f>SUM(J343:J344)</f>
+        <v>1118000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B346" s="20">
+        <v>6</v>
+      </c>
+      <c r="C346" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D346" s="98" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="132">
+        <v>1500</v>
+      </c>
+      <c r="H346" s="13"/>
+      <c r="I346" s="13"/>
+      <c r="J346" s="143">
+        <v>705400</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A347" s="138" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B347" s="20">
+        <v>6</v>
+      </c>
+      <c r="C347" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D347" s="98" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="40">
+        <v>19500</v>
+      </c>
+      <c r="H347" s="13"/>
+      <c r="I347" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="J347" s="116">
+        <f>J345-J346</f>
+        <v>412600</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" s="138"/>
+      <c r="B348" s="135"/>
+      <c r="C348" s="136"/>
+      <c r="D348" s="136"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="126">
+        <f>SUM(G333:G347)</f>
+        <v>143700</v>
+      </c>
+      <c r="H348" s="13"/>
+    </row>
+    <row r="349" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B349" s="20">
+        <v>2</v>
+      </c>
+      <c r="C349" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D349" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="132">
+        <v>2000</v>
+      </c>
+      <c r="H349" s="13"/>
+    </row>
+    <row r="350" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B350" s="20">
+        <v>1</v>
+      </c>
+      <c r="C350" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D350" s="98" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+      <c r="G350" s="132">
+        <v>3550</v>
+      </c>
+      <c r="H350" s="13"/>
+    </row>
+    <row r="351" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B351" s="20">
+        <v>3</v>
+      </c>
+      <c r="C351" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D351" s="98" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+      <c r="G351" s="132">
+        <v>4000</v>
+      </c>
+      <c r="H351" s="13"/>
+    </row>
+    <row r="352" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B352" s="20">
+        <v>2</v>
+      </c>
+      <c r="C352" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D352" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E352" s="138" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F352" s="13"/>
+      <c r="G352" s="132">
+        <v>19000</v>
+      </c>
+      <c r="H352" s="13"/>
+    </row>
+    <row r="353" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B353" s="20">
+        <v>3</v>
+      </c>
+      <c r="C353" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D353" s="98" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E353" s="139"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="132">
+        <v>2500</v>
+      </c>
+      <c r="H353" s="13"/>
+    </row>
+    <row r="354" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B354" s="20">
+        <v>2</v>
+      </c>
+      <c r="C354" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D354" s="98" t="s">
+        <v>648</v>
+      </c>
+      <c r="E354" s="139"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="132">
+        <v>3000</v>
+      </c>
+      <c r="H354" s="13"/>
+    </row>
+    <row r="355" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B355" s="20">
+        <v>2</v>
+      </c>
+      <c r="C355" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D355" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E355" s="138" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F355" s="13"/>
+      <c r="G355" s="132">
+        <v>13000</v>
+      </c>
+      <c r="H355" s="13"/>
+    </row>
+    <row r="356" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B356" s="20">
+        <v>3</v>
+      </c>
+      <c r="C356" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D356" s="98" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E356" s="139"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="132">
+        <v>7000</v>
+      </c>
+      <c r="H356" s="13"/>
+    </row>
+    <row r="357" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B357" s="20">
+        <v>5</v>
+      </c>
+      <c r="C357" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D357" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="E357" s="139"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="132">
+        <v>6000</v>
+      </c>
+      <c r="H357" s="13"/>
+    </row>
+    <row r="358" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B358" s="20">
+        <v>5</v>
+      </c>
+      <c r="C358" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D358" s="98" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E358" s="139"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H358" s="13"/>
+    </row>
+    <row r="359" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B359" s="20">
+        <v>7</v>
+      </c>
+      <c r="C359" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D359" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E359" s="138" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F359" s="13"/>
+      <c r="G359" s="132">
+        <v>2500</v>
+      </c>
+      <c r="H359" s="13"/>
+    </row>
+    <row r="360" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B360" s="20">
+        <v>1</v>
+      </c>
+      <c r="C360" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D360" s="98" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E360" s="138"/>
+      <c r="F360" s="13"/>
+      <c r="G360" s="132">
+        <v>800</v>
+      </c>
+      <c r="H360" s="13"/>
+    </row>
+    <row r="361" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B361" s="20">
+        <v>3</v>
+      </c>
+      <c r="C361" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D361" s="98" t="s">
+        <v>624</v>
+      </c>
+      <c r="E361" s="138"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H361" s="13"/>
+    </row>
+    <row r="362" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B362" s="20">
+        <v>2</v>
+      </c>
+      <c r="C362" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D362" s="98" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E362" s="138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F362" s="13"/>
+      <c r="G362" s="132">
+        <v>33500</v>
+      </c>
+      <c r="H362" s="13"/>
+    </row>
+    <row r="363" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B363" s="20">
+        <v>3</v>
+      </c>
+      <c r="C363" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D363" s="98" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E363" s="138"/>
+      <c r="F363" s="13"/>
+      <c r="G363" s="132">
+        <v>7000</v>
+      </c>
+      <c r="H363" s="13"/>
+    </row>
+    <row r="364" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B364" s="20">
+        <v>2</v>
+      </c>
+      <c r="C364" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D364" s="98" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E364" s="138" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F364" s="13"/>
+      <c r="G364" s="132">
+        <v>3000</v>
+      </c>
+      <c r="H364" s="13"/>
+    </row>
+    <row r="365" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B365" s="20">
+        <v>5</v>
+      </c>
+      <c r="C365" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D365" s="98" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E365" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="F365" s="13"/>
+      <c r="G365" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H365" s="13"/>
+    </row>
+    <row r="366" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B366" s="20">
+        <v>2</v>
+      </c>
+      <c r="C366" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D366" s="98" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E366" s="138" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F366" s="13"/>
+      <c r="G366" s="132">
+        <v>43000</v>
+      </c>
+      <c r="H366" s="13"/>
+      <c r="I366" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J366" s="108">
+        <v>222350</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B367" s="20">
+        <v>2</v>
+      </c>
+      <c r="C367" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D367" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="E367" s="140" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F367" s="13"/>
+      <c r="G367" s="132">
+        <v>5000</v>
+      </c>
+      <c r="H367" s="13"/>
+      <c r="I367" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="J367" s="40">
+        <v>116900</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B368" s="20">
+        <v>4</v>
+      </c>
+      <c r="C368" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D368" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="E368" s="138"/>
+      <c r="F368" s="13"/>
+      <c r="G368" s="132">
+        <v>23000</v>
+      </c>
+      <c r="H368" s="13"/>
+      <c r="I368" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="J368" s="40">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A369" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B369" s="20">
+        <v>6</v>
+      </c>
+      <c r="C369" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D369" s="98" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E369" s="138"/>
+      <c r="F369" s="13"/>
+      <c r="G369" s="132">
+        <v>1500</v>
+      </c>
+      <c r="H369" s="13"/>
+      <c r="I369" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="J369" s="109">
+        <v>653500</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B370" s="20">
+        <v>1</v>
+      </c>
+      <c r="C370" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D370" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E370" s="138"/>
+      <c r="F370" s="13"/>
+      <c r="G370" s="132">
+        <v>1500</v>
+      </c>
+      <c r="H370" s="13"/>
+      <c r="I370" s="98"/>
+      <c r="J370" s="126">
+        <f>SUM(J366:J369)</f>
+        <v>1019750</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A371" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B371" s="20">
+        <v>2</v>
+      </c>
+      <c r="C371" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D371" s="98" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E371" s="138"/>
+      <c r="F371" s="13"/>
+      <c r="G371" s="132">
+        <v>13000</v>
+      </c>
+      <c r="H371" s="13"/>
+      <c r="I371" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="J371" s="107">
+        <v>970500</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A372" s="138" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B372" s="20">
+        <v>6</v>
+      </c>
+      <c r="C372" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D372" s="98" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E372" s="138"/>
+      <c r="F372" s="13"/>
+      <c r="G372" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H372" s="13"/>
+      <c r="I372" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="J372" s="144">
+        <f>J371-J370</f>
+        <v>-49250</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" s="13"/>
+      <c r="B373" s="135"/>
+      <c r="C373" s="136"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="13"/>
+      <c r="F373" s="13"/>
+      <c r="G373" s="108">
+        <f>SUM(G349:G372)</f>
+        <v>222350</v>
+      </c>
+      <c r="H373" s="13"/>
+    </row>
+    <row r="374" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B374" s="20">
+        <v>2</v>
+      </c>
+      <c r="C374" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D374" s="98" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E374" s="138" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F374" s="13"/>
+      <c r="G374" s="132">
+        <v>14000</v>
+      </c>
+      <c r="H374" s="13"/>
+    </row>
+    <row r="375" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B375" s="20">
+        <v>2</v>
+      </c>
+      <c r="C375" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D375" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="E375" s="138"/>
+      <c r="F375" s="13"/>
+      <c r="G375" s="132">
+        <v>2000</v>
+      </c>
+      <c r="H375" s="13"/>
+    </row>
+    <row r="376" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B376" s="20">
+        <v>3</v>
+      </c>
+      <c r="C376" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D376" s="98" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E376" s="138"/>
+      <c r="F376" s="13"/>
+      <c r="G376" s="132">
+        <v>18200</v>
+      </c>
+      <c r="H376" s="13"/>
+    </row>
+    <row r="377" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B377" s="20">
+        <v>3</v>
+      </c>
+      <c r="C377" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D377" s="98" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E377" s="138"/>
+      <c r="F377" s="13"/>
+      <c r="G377" s="132">
+        <v>11500</v>
+      </c>
+      <c r="H377" s="13"/>
+    </row>
+    <row r="378" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B378" s="20">
+        <v>3</v>
+      </c>
+      <c r="C378" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="D378" s="98" t="s">
+        <v>973</v>
+      </c>
+      <c r="E378" s="138"/>
+      <c r="F378" s="13"/>
+      <c r="G378" s="132">
+        <v>4500</v>
+      </c>
+      <c r="H378" s="13"/>
+    </row>
+    <row r="379" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B379" s="20">
+        <v>5</v>
+      </c>
+      <c r="C379" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D379" s="98" t="s">
+        <v>640</v>
+      </c>
+      <c r="E379" s="138"/>
+      <c r="F379" s="13"/>
+      <c r="G379" s="132">
+        <v>6000</v>
+      </c>
+      <c r="H379" s="13"/>
+    </row>
+    <row r="380" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B380" s="20">
+        <v>1</v>
+      </c>
+      <c r="C380" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D380" s="98" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E380" s="138"/>
+      <c r="F380" s="13"/>
+      <c r="G380" s="132">
+        <v>1200</v>
+      </c>
+      <c r="H380" s="13"/>
+    </row>
+    <row r="381" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B381" s="20">
+        <v>6</v>
+      </c>
+      <c r="C381" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D381" s="98" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E381" s="138"/>
+      <c r="F381" s="13"/>
+      <c r="G381" s="132">
+        <v>3000</v>
+      </c>
+      <c r="H381" s="13"/>
+    </row>
+    <row r="382" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B382" s="20">
+        <v>2</v>
+      </c>
+      <c r="C382" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D382" s="98" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E382" s="138" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F382" s="13"/>
+      <c r="G382" s="132">
+        <v>51500</v>
+      </c>
+      <c r="H382" s="13"/>
+    </row>
+    <row r="383" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B383" s="20">
+        <v>2</v>
+      </c>
+      <c r="C383" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D383" s="98" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E383" s="138" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F383" s="13"/>
+      <c r="G383" s="132">
+        <v>29500</v>
+      </c>
+      <c r="H383" s="13"/>
+    </row>
+    <row r="384" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B384" s="20">
+        <v>2</v>
+      </c>
+      <c r="C384" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D384" s="98" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E384" s="138" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F384" s="13"/>
+      <c r="G384" s="132">
+        <v>5000</v>
+      </c>
+      <c r="H384" s="13"/>
+    </row>
+    <row r="385" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B385" s="20">
+        <v>2</v>
+      </c>
+      <c r="C385" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D385" s="98" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E385" s="138" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F385" s="13"/>
+      <c r="G385" s="132">
+        <v>10000</v>
+      </c>
+      <c r="H385" s="13"/>
+    </row>
+    <row r="386" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B386" s="20">
+        <v>2</v>
+      </c>
+      <c r="C386" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D386" s="98" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E386" s="138" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F386" s="13"/>
+      <c r="G386" s="132">
+        <v>55000</v>
+      </c>
+      <c r="H386" s="13"/>
+    </row>
+    <row r="387" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B387" s="20">
+        <v>2</v>
+      </c>
+      <c r="C387" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D387" s="98" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E387" s="138" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F387" s="13"/>
+      <c r="G387" s="132">
+        <v>23000</v>
+      </c>
+      <c r="H387" s="13"/>
+      <c r="I387" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J387" s="108">
+        <v>338400</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B388" s="20">
+        <v>2</v>
+      </c>
+      <c r="C388" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D388" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="E388" s="138" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F388" s="13"/>
+      <c r="G388" s="132">
+        <v>24000</v>
+      </c>
+      <c r="H388" s="13"/>
+      <c r="I388" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="J388" s="40">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B389" s="20">
+        <v>2</v>
+      </c>
+      <c r="C389" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D389" s="98" t="s">
+        <v>502</v>
+      </c>
+      <c r="E389" s="138" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F389" s="13"/>
+      <c r="G389" s="132">
+        <v>23000</v>
+      </c>
+      <c r="H389" s="13"/>
+      <c r="I389" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="J389" s="40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A390" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B390" s="20">
+        <v>2</v>
+      </c>
+      <c r="C390" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D390" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="E390" s="138" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F390" s="13"/>
+      <c r="G390" s="132">
+        <v>20000</v>
+      </c>
+      <c r="H390" s="13"/>
+      <c r="I390" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="J390" s="109">
+        <v>328500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B391" s="20">
+        <v>4</v>
+      </c>
+      <c r="C391" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D391" s="98" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E391" s="138"/>
+      <c r="F391" s="13"/>
+      <c r="G391" s="132">
+        <v>10000</v>
+      </c>
+      <c r="H391" s="13"/>
+      <c r="I391" s="98"/>
+      <c r="J391" s="126">
+        <f>SUM(J387:J390)</f>
+        <v>704900</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A392" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B392" s="20">
+        <v>6</v>
+      </c>
+      <c r="C392" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D392" s="98" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E392" s="138"/>
+      <c r="F392" s="13"/>
+      <c r="G392" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H392" s="13"/>
+      <c r="I392" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="J392" s="107">
+        <v>373000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A393" s="138" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B393" s="20">
+        <v>6</v>
+      </c>
+      <c r="C393" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D393" s="98" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E393" s="138"/>
+      <c r="F393" s="13"/>
+      <c r="G393" s="132">
+        <v>1500</v>
+      </c>
+      <c r="H393" s="13"/>
+      <c r="I393" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="J393" s="144">
+        <f>J392-J391</f>
+        <v>-331900</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" s="13"/>
+      <c r="B394" s="135"/>
+      <c r="C394" s="136"/>
+      <c r="D394" s="136"/>
+      <c r="E394" s="13"/>
+      <c r="F394" s="13"/>
+      <c r="G394" s="126">
+        <f>SUM(G374:G393)</f>
+        <v>338400</v>
+      </c>
+      <c r="H394" s="13"/>
+    </row>
+    <row r="395" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B395" s="20"/>
+      <c r="C395" s="98"/>
+      <c r="D395" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E395" s="138" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F395" s="13"/>
+      <c r="G395" s="132">
+        <v>2000</v>
+      </c>
+      <c r="H395" s="13"/>
+    </row>
+    <row r="396" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B396" s="20"/>
+      <c r="C396" s="98"/>
+      <c r="D396" s="98" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E396" s="138" t="s">
+        <v>868</v>
+      </c>
+      <c r="F396" s="13"/>
+      <c r="G396" s="132">
+        <v>250000</v>
+      </c>
+      <c r="H396" s="13"/>
+    </row>
+    <row r="397" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B397" s="20"/>
+      <c r="C397" s="98"/>
+      <c r="D397" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="E397" s="138"/>
+      <c r="F397" s="13"/>
+      <c r="G397" s="32">
+        <v>9000</v>
+      </c>
+      <c r="H397" s="13"/>
+    </row>
+    <row r="398" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B398" s="20"/>
+      <c r="C398" s="98"/>
+      <c r="D398" s="98" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E398" s="138" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F398" s="13"/>
+      <c r="G398" s="132">
+        <v>6500</v>
+      </c>
+      <c r="H398" s="13"/>
+    </row>
+    <row r="399" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B399" s="20"/>
+      <c r="C399" s="98"/>
+      <c r="D399" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="E399" s="138"/>
+      <c r="F399" s="13"/>
+      <c r="G399" s="132">
+        <v>5500</v>
+      </c>
+      <c r="H399" s="13"/>
+    </row>
+    <row r="400" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B400" s="20"/>
+      <c r="C400" s="98"/>
+      <c r="D400" s="98" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E400" s="138" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F400" s="13"/>
+      <c r="G400" s="132">
+        <v>13000</v>
+      </c>
+      <c r="H400" s="13"/>
+    </row>
+    <row r="401" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B401" s="20"/>
+      <c r="C401" s="98"/>
+      <c r="D401" s="98" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E401" s="138" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F401" s="13"/>
+      <c r="G401" s="132">
+        <v>1800</v>
+      </c>
+      <c r="H401" s="13"/>
+    </row>
+    <row r="402" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B402" s="20"/>
+      <c r="C402" s="98"/>
+      <c r="D402" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="E402" s="138"/>
+      <c r="F402" s="13"/>
+      <c r="G402" s="132">
+        <v>50000</v>
+      </c>
+      <c r="H402" s="13"/>
+    </row>
+    <row r="403" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B403" s="20"/>
+      <c r="C403" s="98"/>
+      <c r="D403" s="98" t="s">
+        <v>737</v>
+      </c>
+      <c r="E403" s="138"/>
+      <c r="F403" s="13"/>
+      <c r="G403" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H403" s="13"/>
+    </row>
+    <row r="404" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B404" s="20"/>
+      <c r="C404" s="98"/>
+      <c r="D404" s="98" t="s">
+        <v>423</v>
+      </c>
+      <c r="E404" s="138" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F404" s="13"/>
+      <c r="G404" s="132">
+        <v>20000</v>
+      </c>
+      <c r="H404" s="13"/>
+    </row>
+    <row r="405" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B405" s="20"/>
+      <c r="C405" s="98"/>
+      <c r="D405" s="98" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E405" s="138" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F405" s="13"/>
+      <c r="G405" s="132">
+        <v>35000</v>
+      </c>
+      <c r="H405" s="13"/>
+    </row>
+    <row r="406" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B406" s="20"/>
+      <c r="C406" s="98"/>
+      <c r="D406" s="98" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E406" s="138"/>
+      <c r="F406" s="13"/>
+      <c r="G406" s="132">
+        <v>1000</v>
+      </c>
+      <c r="H406" s="13"/>
+    </row>
+    <row r="407" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B407" s="20"/>
+      <c r="C407" s="98"/>
+      <c r="D407" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="E407" s="138" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F407" s="13"/>
+      <c r="G407" s="132">
+        <v>5000</v>
+      </c>
+      <c r="H407" s="13"/>
+    </row>
+    <row r="408" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B408" s="20"/>
+      <c r="C408" s="98"/>
+      <c r="D408" s="98" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E408" s="138"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="132">
+        <v>2000</v>
+      </c>
+      <c r="H408" s="13"/>
+    </row>
+    <row r="409" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B409" s="20"/>
+      <c r="C409" s="98"/>
+      <c r="D409" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="E409" s="138"/>
+      <c r="F409" s="13"/>
+      <c r="G409" s="132">
+        <v>23000</v>
+      </c>
+      <c r="H409" s="13"/>
+    </row>
+    <row r="410" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" s="138" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="98"/>
+      <c r="D410" s="98" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E410" s="138"/>
+      <c r="F410" s="13"/>
+      <c r="G410" s="132">
+        <v>25500</v>
+      </c>
+      <c r="H410" s="13"/>
+    </row>
+    <row r="411" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" s="138"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="98"/>
+      <c r="D411" s="98"/>
+      <c r="E411" s="138"/>
+      <c r="F411" s="13"/>
+      <c r="G411" s="126">
+        <f>SUM(G395:G410)</f>
+        <v>450300</v>
+      </c>
+      <c r="H411" s="13"/>
+    </row>
+    <row r="412" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" s="138" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B412" s="20"/>
+      <c r="C412" s="98"/>
+      <c r="D412" s="98" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E412" s="138"/>
+      <c r="F412" s="13"/>
+      <c r="G412" s="132"/>
+      <c r="H412" s="13"/>
+    </row>
+    <row r="413" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" s="138" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B413" s="20"/>
+      <c r="C413" s="98"/>
+      <c r="D413" s="98" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E413" s="138"/>
+      <c r="F413" s="13"/>
+      <c r="G413" s="132"/>
+      <c r="H413" s="13"/>
+    </row>
+    <row r="414" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" s="138"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="98"/>
+      <c r="D414" s="98"/>
+      <c r="E414" s="138"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="132"/>
+      <c r="H414" s="13"/>
+    </row>
+    <row r="415" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" s="13"/>
+      <c r="B415" s="135"/>
+      <c r="C415" s="136"/>
+      <c r="D415" s="136"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+      <c r="G415" s="137"/>
+      <c r="H415" s="13"/>
+    </row>
+    <row r="416" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" s="13"/>
+      <c r="B416" s="135"/>
+      <c r="C416" s="136"/>
+      <c r="D416" s="136"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+      <c r="G416" s="137"/>
+      <c r="H416" s="13"/>
+    </row>
+    <row r="417" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" s="13"/>
+      <c r="B417" s="135"/>
+      <c r="C417" s="136"/>
+      <c r="D417" s="136"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+      <c r="G417" s="137"/>
+      <c r="H417" s="13"/>
+    </row>
+    <row r="418" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" s="13"/>
+      <c r="B418" s="135"/>
+      <c r="C418" s="136"/>
+      <c r="D418" s="136"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+      <c r="G418" s="137"/>
+      <c r="H418" s="13"/>
+    </row>
+    <row r="419" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" s="13"/>
+      <c r="B419" s="135"/>
+      <c r="C419" s="136"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+      <c r="G419" s="137"/>
+      <c r="H419" s="13"/>
+    </row>
+    <row r="420" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" s="13"/>
+      <c r="B420" s="135"/>
+      <c r="C420" s="136"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+      <c r="G420" s="137"/>
+      <c r="H420" s="13"/>
+    </row>
+    <row r="421" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" s="13"/>
+      <c r="B421" s="135"/>
+      <c r="C421" s="136"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13"/>
+      <c r="G421" s="137"/>
+      <c r="H421" s="13"/>
+    </row>
+    <row r="422" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" s="13"/>
+      <c r="B422" s="135"/>
+      <c r="C422" s="136"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="137"/>
+      <c r="H422" s="13"/>
+    </row>
+    <row r="423" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" s="13"/>
+      <c r="B423" s="135"/>
+      <c r="C423" s="136"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+      <c r="G423" s="137"/>
+      <c r="H423" s="13"/>
+    </row>
+    <row r="424" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" s="13"/>
+      <c r="B424" s="135"/>
+      <c r="C424" s="136"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="137"/>
+      <c r="H424" s="13"/>
+    </row>
+    <row r="425" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" s="13"/>
+      <c r="B425" s="135"/>
+      <c r="C425" s="136"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+      <c r="G425" s="137"/>
+      <c r="H425" s="13"/>
+    </row>
+    <row r="426" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" s="13"/>
+      <c r="B426" s="135"/>
+      <c r="C426" s="136"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+      <c r="G426" s="137"/>
+      <c r="H426" s="13"/>
+    </row>
+    <row r="427" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" s="13"/>
+      <c r="B427" s="135"/>
+      <c r="C427" s="136"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+      <c r="G427" s="137"/>
+      <c r="H427" s="13"/>
+    </row>
+    <row r="428" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" s="13"/>
+      <c r="B428" s="135"/>
+      <c r="C428" s="136"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+      <c r="G428" s="137"/>
+      <c r="H428" s="13"/>
+    </row>
+    <row r="429" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" s="13"/>
+      <c r="B429" s="135"/>
+      <c r="C429" s="136"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+      <c r="G429" s="137"/>
+      <c r="H429" s="13"/>
+    </row>
+    <row r="430" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" s="13"/>
+      <c r="B430" s="135"/>
+      <c r="C430" s="136"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="137"/>
+      <c r="H430" s="13"/>
+    </row>
+    <row r="431" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" s="13"/>
+      <c r="B431" s="135"/>
+      <c r="C431" s="136"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="13"/>
+      <c r="F431" s="13"/>
+      <c r="G431" s="137"/>
+      <c r="H431" s="13"/>
+    </row>
+    <row r="432" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" s="13"/>
+      <c r="B432" s="135"/>
+      <c r="C432" s="136"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+      <c r="G432" s="137"/>
+      <c r="H432" s="13"/>
+    </row>
+    <row r="433" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" s="13"/>
+      <c r="B433" s="135"/>
+      <c r="C433" s="136"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+      <c r="G433" s="137"/>
+      <c r="H433" s="13"/>
+    </row>
+    <row r="434" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" s="13"/>
+      <c r="B434" s="135"/>
+      <c r="C434" s="136"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="137"/>
+      <c r="H434" s="13"/>
+    </row>
+    <row r="435" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" s="13"/>
+      <c r="B435" s="135"/>
+      <c r="C435" s="136"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+      <c r="G435" s="137"/>
+      <c r="H435" s="13"/>
+    </row>
+    <row r="436" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" s="13"/>
+      <c r="B436" s="135"/>
+      <c r="C436" s="136"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+      <c r="G436" s="137"/>
+      <c r="H436" s="13"/>
+    </row>
+    <row r="437" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" s="13"/>
+      <c r="B437" s="135"/>
+      <c r="C437" s="136"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="13"/>
+      <c r="F437" s="13"/>
+      <c r="G437" s="137"/>
+      <c r="H437" s="13"/>
+    </row>
+    <row r="438" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" s="13"/>
+      <c r="B438" s="135"/>
+      <c r="C438" s="136"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="13"/>
+      <c r="F438" s="13"/>
+      <c r="G438" s="137"/>
+      <c r="H438" s="13"/>
+    </row>
+    <row r="439" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" s="13"/>
+      <c r="B439" s="135"/>
+      <c r="C439" s="136"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="13"/>
+      <c r="F439" s="13"/>
+      <c r="G439" s="137"/>
+      <c r="H439" s="13"/>
+    </row>
+    <row r="440" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" s="13"/>
+      <c r="B440" s="135"/>
+      <c r="C440" s="136"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13"/>
+      <c r="F440" s="13"/>
+      <c r="G440" s="137"/>
+      <c r="H440" s="13"/>
+    </row>
+    <row r="441" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" s="13"/>
+      <c r="B441" s="135"/>
+      <c r="C441" s="136"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="13"/>
+      <c r="F441" s="13"/>
+      <c r="G441" s="137"/>
+      <c r="H441" s="13"/>
+    </row>
+    <row r="442" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" s="13"/>
+      <c r="B442" s="135"/>
+      <c r="C442" s="136"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="13"/>
+      <c r="F442" s="13"/>
+      <c r="G442" s="137"/>
+      <c r="H442" s="13"/>
+    </row>
+    <row r="443" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" s="13"/>
+      <c r="B443" s="135"/>
+      <c r="C443" s="136"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="13"/>
+      <c r="F443" s="13"/>
+      <c r="G443" s="137"/>
+      <c r="H443" s="13"/>
+    </row>
+    <row r="444" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" s="13"/>
+      <c r="B444" s="135"/>
+      <c r="C444" s="136"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="13"/>
+      <c r="F444" s="13"/>
+      <c r="G444" s="137"/>
+      <c r="H444" s="13"/>
+    </row>
+    <row r="445" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" s="13"/>
+      <c r="B445" s="135"/>
+      <c r="C445" s="136"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="13"/>
+      <c r="F445" s="13"/>
+      <c r="G445" s="137"/>
+      <c r="H445" s="13"/>
+    </row>
+    <row r="446" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" s="13"/>
+      <c r="B446" s="135"/>
+      <c r="C446" s="136"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="13"/>
+      <c r="F446" s="13"/>
+      <c r="G446" s="137"/>
+      <c r="H446" s="13"/>
+    </row>
+    <row r="447" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" s="13"/>
+      <c r="B447" s="135"/>
+      <c r="C447" s="136"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="13"/>
+      <c r="F447" s="13"/>
+      <c r="G447" s="137"/>
+      <c r="H447" s="13"/>
+    </row>
+    <row r="448" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" s="13"/>
+      <c r="B448" s="135"/>
+      <c r="C448" s="136"/>
+      <c r="D448" s="13"/>
+      <c r="E448" s="13"/>
+      <c r="F448" s="13"/>
+      <c r="G448" s="137"/>
+      <c r="H448" s="13"/>
+    </row>
+    <row r="449" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" s="13"/>
+      <c r="B449" s="135"/>
+      <c r="C449" s="136"/>
+      <c r="D449" s="13"/>
+      <c r="E449" s="13"/>
+      <c r="F449" s="13"/>
+      <c r="G449" s="137"/>
+      <c r="H449" s="13"/>
+    </row>
+    <row r="450" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" s="13"/>
+      <c r="B450" s="135"/>
+      <c r="C450" s="136"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="13"/>
+      <c r="F450" s="13"/>
+      <c r="G450" s="137"/>
+      <c r="H450" s="13"/>
+    </row>
+    <row r="451" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" s="13"/>
+      <c r="B451" s="135"/>
+      <c r="C451" s="136"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="13"/>
+      <c r="F451" s="13"/>
+      <c r="G451" s="137"/>
+      <c r="H451" s="13"/>
+    </row>
+    <row r="452" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" s="13"/>
+      <c r="B452" s="135"/>
+      <c r="C452" s="136"/>
+      <c r="D452" s="13"/>
+      <c r="E452" s="13"/>
+      <c r="F452" s="13"/>
+      <c r="G452" s="137"/>
+      <c r="H452" s="13"/>
+    </row>
+    <row r="453" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" s="13"/>
+      <c r="B453" s="135"/>
+      <c r="C453" s="136"/>
+      <c r="D453" s="13"/>
+      <c r="E453" s="13"/>
+      <c r="F453" s="13"/>
+      <c r="G453" s="137"/>
+      <c r="H453" s="13"/>
+    </row>
+    <row r="454" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" s="13"/>
+      <c r="B454" s="135"/>
+      <c r="C454" s="136"/>
+      <c r="D454" s="13"/>
+      <c r="E454" s="13"/>
+      <c r="F454" s="13"/>
+      <c r="G454" s="137"/>
+      <c r="H454" s="13"/>
+    </row>
+    <row r="455" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" s="13"/>
+      <c r="B455" s="135"/>
+      <c r="C455" s="136"/>
+      <c r="D455" s="13"/>
+      <c r="E455" s="13"/>
+      <c r="F455" s="13"/>
+      <c r="G455" s="137"/>
+      <c r="H455" s="13"/>
+    </row>
+    <row r="456" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" s="13"/>
+      <c r="B456" s="135"/>
+      <c r="C456" s="136"/>
+      <c r="D456" s="13"/>
+      <c r="E456" s="13"/>
+      <c r="F456" s="13"/>
+      <c r="G456" s="137"/>
+      <c r="H456" s="13"/>
+    </row>
+    <row r="457" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" s="13"/>
+      <c r="B457" s="135"/>
+      <c r="C457" s="136"/>
+      <c r="D457" s="13"/>
+      <c r="E457" s="13"/>
+      <c r="F457" s="13"/>
+      <c r="G457" s="137"/>
+      <c r="H457" s="13"/>
+    </row>
+    <row r="458" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" s="13"/>
+      <c r="B458" s="135"/>
+      <c r="C458" s="136"/>
+      <c r="D458" s="13"/>
+      <c r="E458" s="13"/>
+      <c r="F458" s="13"/>
+      <c r="G458" s="137"/>
+      <c r="H458" s="13"/>
+    </row>
+    <row r="459" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" s="13"/>
+      <c r="B459" s="135"/>
+      <c r="C459" s="136"/>
+      <c r="D459" s="13"/>
+      <c r="E459" s="13"/>
+      <c r="F459" s="13"/>
+      <c r="G459" s="137"/>
+      <c r="H459" s="13"/>
+    </row>
+    <row r="460" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" s="13"/>
+      <c r="B460" s="135"/>
+      <c r="C460" s="136"/>
+      <c r="D460" s="13"/>
+      <c r="E460" s="13"/>
+      <c r="F460" s="13"/>
+      <c r="G460" s="137"/>
+      <c r="H460" s="13"/>
+    </row>
+    <row r="461" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" s="13"/>
+      <c r="B461" s="135"/>
+      <c r="C461" s="136"/>
+      <c r="D461" s="13"/>
+      <c r="E461" s="13"/>
+      <c r="F461" s="13"/>
+      <c r="G461" s="137"/>
+      <c r="H461" s="13"/>
+    </row>
+    <row r="462" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" s="13"/>
+      <c r="B462" s="135"/>
+      <c r="C462" s="136"/>
+      <c r="D462" s="13"/>
+      <c r="E462" s="13"/>
+      <c r="F462" s="13"/>
+      <c r="G462" s="137"/>
+      <c r="H462" s="13"/>
+    </row>
+    <row r="463" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" s="13"/>
+      <c r="B463" s="135"/>
+      <c r="C463" s="136"/>
+      <c r="D463" s="13"/>
+      <c r="E463" s="13"/>
+      <c r="F463" s="13"/>
+      <c r="G463" s="137"/>
+      <c r="H463" s="13"/>
+    </row>
+    <row r="464" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" s="13"/>
+      <c r="B464" s="135"/>
+      <c r="C464" s="136"/>
+      <c r="D464" s="13"/>
+      <c r="E464" s="13"/>
+      <c r="F464" s="13"/>
+      <c r="G464" s="137"/>
+      <c r="H464" s="13"/>
+    </row>
+    <row r="465" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" s="13"/>
+      <c r="B465" s="135"/>
+      <c r="C465" s="136"/>
+      <c r="D465" s="13"/>
+      <c r="E465" s="13"/>
+      <c r="F465" s="13"/>
+      <c r="G465" s="137"/>
+      <c r="H465" s="13"/>
+    </row>
+    <row r="466" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" s="13"/>
+      <c r="B466" s="135"/>
+      <c r="C466" s="136"/>
+      <c r="D466" s="13"/>
+      <c r="E466" s="13"/>
+      <c r="F466" s="13"/>
+      <c r="G466" s="137"/>
+      <c r="H466" s="13"/>
+    </row>
+    <row r="467" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" s="13"/>
+      <c r="B467" s="135"/>
+      <c r="C467" s="136"/>
+      <c r="D467" s="13"/>
+      <c r="E467" s="13"/>
+      <c r="F467" s="13"/>
+      <c r="G467" s="137"/>
+      <c r="H467" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H310"/>
